--- a/Course-challenge Part-1.xlsx
+++ b/Course-challenge Part-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Financial-Analyst-Course\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9fc217ca56d8e9fe/Desktop/Financial-Analyst-Course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D165819-75F9-4DF6-A4C0-7789FAEC480E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{8D165819-75F9-4DF6-A4C0-7789FAEC480E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06137D84-AC6E-44D8-BB57-3BCAC8C25922}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Source --&gt;" sheetId="3" r:id="rId1"/>
@@ -20,11 +20,10 @@
     <sheet name="Task 2" sheetId="6" r:id="rId5"/>
     <sheet name="Task 3" sheetId="7" r:id="rId6"/>
     <sheet name="Task 4" sheetId="8" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="68">
   <si>
     <t>Period</t>
   </si>
@@ -245,20 +244,28 @@
   <si>
     <t>Gross Profit %</t>
   </si>
+  <si>
+    <t>Maximum Profit</t>
+  </si>
+  <si>
+    <t>Second Maximum Profit</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _л_в_._-;\-* #,##0.00\ _л_в_._-;_-* &quot;-&quot;??\ _л_в_._-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="[$-409]mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0\ _л_в_._-;\-* #,##0\ _л_в_._-;_-* &quot;-&quot;??\ _л_в_._-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="[$$-409]###\ ###;[Red]\(###\ ###\);\-;"/>
     <numFmt numFmtId="168" formatCode="[$$-EF0000]###\ ###;[Red]\(###\ ###\);\-;"/>
     <numFmt numFmtId="169" formatCode="\$###\ ###;[Red]\(###\ ###\);\-;"/>
+    <numFmt numFmtId="170" formatCode="[$$-409]#,##0.00"/>
+    <numFmt numFmtId="171" formatCode="[$$-409]#,##0;[Red][$$-409]#,##0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,14 +349,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,6 +366,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,7 +420,7 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -453,15 +466,17 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="10" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -719,6 +734,2908 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Monthly</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" baseline="0"/>
+              <a:t> Revenue, COGS, Gross Profit</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 2'!$D$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Monthly Revenue ($ 000')</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Task 2'!$C$27:$C$38</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Task 2'!$D$27:$D$38</c:f>
+              <c:numCache>
+                <c:formatCode>\$###\ ###;[Red]\(###\ ###\);\-;</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41826.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38062.02399999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40726.365680000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42371.710853472003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43202.528713344014</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47954.806871811852</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47475.258803093726</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45576.248450969972</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50133.873296066973</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D49A-4F13-A8B1-D569C46B4CAB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 2'!$E$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Monthly Cogs ($ 000')</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Task 2'!$C$27:$C$38</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Task 2'!$E$27:$E$38</c:f>
+              <c:numCache>
+                <c:formatCode>\$###\ ###;[Red]\(###\ ###\);\-;</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>19552.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21978.051040000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21729.517854352005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21278.12091516213</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19416.40747015956</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21432.956402718137</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22417.63459304985</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23460.956474254621</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25981.448685404252</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23984.946065250533</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23879.021934772212</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27313.274908148269</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D49A-4F13-A8B1-D569C46B4CAB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 2'!$F$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Monthly Gross Profit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Task 2'!$C$27:$C$38</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Task 2'!$F$27:$F$38</c:f>
+              <c:numCache>
+                <c:formatCode>\$###\ ###;[Red]\(###\ ###\);\-;</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>20447.52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22021.948959999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21390.482145647995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20548.279084837872</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18645.61652984043</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19293.409277281866</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19954.076260422153</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19741.572239089393</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21973.3581864076</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23490.312737843193</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21697.226516197759</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22820.598387918704</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D49A-4F13-A8B1-D569C46B4CAB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="5660560"/>
+        <c:axId val="5661040"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="5660560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="5661040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="5661040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="\$###\ ###;[Red]\(###\ ###\);\-;" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="5660560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 3'!$C$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% Incidence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-20D2-443B-B5F9-FC55DFF40F0A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-20D2-443B-B5F9-FC55DFF40F0A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-20D2-443B-B5F9-FC55DFF40F0A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Task 3'!$D$9:$F$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Fast Food</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Other</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Supermarkets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Task 3'!$D$23:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>16.024931023363269</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.365633324774937</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.609435651861794</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5FA8-4787-B22E-624422D9974E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GP%</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Task 4'!$G$8,'Task 4'!$G$15)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Aldi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Kaufland</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Task 4'!$K$8,'Task 4'!$K$15)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>7.0304638672646007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.017715861034503</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4E4E-4167-9800-14DEF82A89A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2056288911"/>
+        <c:axId val="2056287471"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2056288911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2056287471"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2056287471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2056288911"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
@@ -766,6 +3683,129 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{067B58F5-6EED-70F2-4611-EFF8C7021F62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99594E23-2EEA-01CD-3769-688907B5F5A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>891540</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B47854-E7D5-7DE7-4DA5-8B30065DC84B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4722,22 +7762,22 @@
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
       <items count="17">
-        <item x="1"/>
-        <item x="6"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item x="14"/>
-        <item x="0"/>
-        <item x="10"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="15"/>
-        <item x="2"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="11"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="14"/>
+        <item sd="0" x="0"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="15"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item sd="0" x="11"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -5298,7 +8338,7 @@
         <item sd="0" x="367"/>
       </items>
     </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0">
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
       <items count="14">
         <item sd="0" x="0"/>
         <item x="1"/>
@@ -5317,8 +8357,9 @@
       </items>
     </pivotField>
   </pivotFields>
-  <rowFields count="1">
+  <rowFields count="2">
     <field x="2"/>
+    <field x="6"/>
   </rowFields>
   <rowItems count="17">
     <i>
@@ -9561,8 +12602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -9618,8 +12659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:F39"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -10015,6 +13056,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10023,7 +13065,7 @@
   <dimension ref="B1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -10323,22 +13365,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="B1:K24"/>
+  <dimension ref="B1:K216"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.109375" style="1"/>
-    <col min="3" max="3" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.109375" style="1"/>
@@ -10394,7 +13437,7 @@
       <c r="J7" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="K7" s="36" t="s">
+      <c r="K7" s="34" t="s">
         <v>65</v>
       </c>
     </row>
@@ -10408,7 +13451,7 @@
       <c r="E8" s="25">
         <v>26807.780388826301</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="38" t="s">
         <v>3</v>
       </c>
       <c r="H8" s="39">
@@ -10436,20 +13479,20 @@
       <c r="E9" s="25">
         <v>11159.524520507244</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="39">
+      <c r="H9" s="35">
         <v>23156.108007201063</v>
       </c>
-      <c r="I9" s="39">
+      <c r="I9" s="35">
         <v>11159.524520507244</v>
       </c>
-      <c r="J9" s="39">
+      <c r="J9" s="35">
         <f t="shared" ref="J9:J24" si="0">H9-I9</f>
         <v>11996.583486693818</v>
       </c>
-      <c r="K9" s="40">
+      <c r="K9" s="36">
         <f t="shared" ref="K9:K24" si="1">J9/$J$24*100</f>
         <v>4.7600880990889589</v>
       </c>
@@ -10464,20 +13507,20 @@
       <c r="E10" s="25">
         <v>7378.9088759684</v>
       </c>
-      <c r="G10" s="34" t="s">
+      <c r="G10" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="35">
         <v>11853.232016708831</v>
       </c>
-      <c r="I10" s="39">
+      <c r="I10" s="35">
         <v>7378.9088759684</v>
       </c>
-      <c r="J10" s="39">
+      <c r="J10" s="35">
         <f t="shared" si="0"/>
         <v>4474.323140740431</v>
       </c>
-      <c r="K10" s="40">
+      <c r="K10" s="36">
         <f t="shared" si="1"/>
         <v>1.7753531542826366</v>
       </c>
@@ -10492,20 +13535,20 @@
       <c r="E11" s="25">
         <v>12877.495293914986</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="G11" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="39">
+      <c r="H11" s="35">
         <v>24412.62437208393</v>
       </c>
-      <c r="I11" s="39">
+      <c r="I11" s="35">
         <v>12877.495293914986</v>
       </c>
-      <c r="J11" s="39">
+      <c r="J11" s="35">
         <f t="shared" si="0"/>
         <v>11535.129078168944</v>
       </c>
-      <c r="K11" s="40">
+      <c r="K11" s="36">
         <f t="shared" si="1"/>
         <v>4.5769889991887469</v>
       </c>
@@ -10520,20 +13563,20 @@
       <c r="E12" s="25">
         <v>12615.72324308289</v>
       </c>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="35">
         <v>22605.848001625593</v>
       </c>
-      <c r="I12" s="39">
+      <c r="I12" s="35">
         <v>12615.72324308289</v>
       </c>
-      <c r="J12" s="39">
+      <c r="J12" s="35">
         <f t="shared" si="0"/>
         <v>9990.1247585427027</v>
       </c>
-      <c r="K12" s="40">
+      <c r="K12" s="36">
         <f t="shared" si="1"/>
         <v>3.9639514053562115</v>
       </c>
@@ -10548,20 +13591,20 @@
       <c r="E13" s="25">
         <v>16821.60038566107</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="G13" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="39">
+      <c r="H13" s="35">
         <v>32319.657244112575</v>
       </c>
-      <c r="I13" s="39">
+      <c r="I13" s="35">
         <v>16821.60038566107</v>
       </c>
-      <c r="J13" s="39">
+      <c r="J13" s="35">
         <f t="shared" si="0"/>
         <v>15498.056858451506</v>
       </c>
-      <c r="K13" s="40">
+      <c r="K13" s="36">
         <f t="shared" si="1"/>
         <v>6.1494271342123721</v>
       </c>
@@ -10576,20 +13619,20 @@
       <c r="E14" s="25">
         <v>12614.707039631432</v>
       </c>
-      <c r="G14" s="34" t="s">
+      <c r="G14" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="39">
+      <c r="H14" s="35">
         <v>27124.323335742109</v>
       </c>
-      <c r="I14" s="39">
+      <c r="I14" s="35">
         <v>12614.707039631432</v>
       </c>
-      <c r="J14" s="39">
+      <c r="J14" s="35">
         <f t="shared" si="0"/>
         <v>14509.616296110677</v>
       </c>
-      <c r="K14" s="40">
+      <c r="K14" s="36">
         <f t="shared" si="1"/>
         <v>5.7572267912835651</v>
       </c>
@@ -10604,7 +13647,7 @@
       <c r="E15" s="25">
         <v>38588.782689077227</v>
       </c>
-      <c r="G15" s="34" t="s">
+      <c r="G15" s="38" t="s">
         <v>2</v>
       </c>
       <c r="H15" s="39">
@@ -10613,7 +13656,7 @@
       <c r="I15" s="39">
         <v>38588.782689077227</v>
       </c>
-      <c r="J15" s="39">
+      <c r="J15" s="41">
         <f t="shared" si="0"/>
         <v>27767.332328338263</v>
       </c>
@@ -10632,20 +13675,20 @@
       <c r="E16" s="25">
         <v>15851.521037777205</v>
       </c>
-      <c r="G16" s="34" t="s">
+      <c r="G16" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="39">
+      <c r="H16" s="35">
         <v>27237.485018576208</v>
       </c>
-      <c r="I16" s="39">
+      <c r="I16" s="35">
         <v>15851.521037777205</v>
       </c>
-      <c r="J16" s="39">
+      <c r="J16" s="35">
         <f t="shared" si="0"/>
         <v>11385.963980799002</v>
       </c>
-      <c r="K16" s="40">
+      <c r="K16" s="36">
         <f t="shared" si="1"/>
         <v>4.5178022310911752</v>
       </c>
@@ -10660,20 +13703,20 @@
       <c r="E17" s="25">
         <v>14559.69471863563</v>
       </c>
-      <c r="G17" s="34" t="s">
+      <c r="G17" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="39">
+      <c r="H17" s="35">
         <v>24974.207387894301</v>
       </c>
-      <c r="I17" s="39">
+      <c r="I17" s="35">
         <v>14559.69471863563</v>
       </c>
-      <c r="J17" s="39">
+      <c r="J17" s="35">
         <f t="shared" si="0"/>
         <v>10414.512669258671</v>
       </c>
-      <c r="K17" s="40">
+      <c r="K17" s="36">
         <f t="shared" si="1"/>
         <v>4.1323430016333473</v>
       </c>
@@ -10688,20 +13731,20 @@
       <c r="E18" s="25">
         <v>13047.778706700836</v>
       </c>
-      <c r="G18" s="34" t="s">
+      <c r="G18" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="39">
+      <c r="H18" s="35">
         <v>28589.956371885684</v>
       </c>
-      <c r="I18" s="39">
+      <c r="I18" s="35">
         <v>13047.778706700836</v>
       </c>
-      <c r="J18" s="39">
+      <c r="J18" s="35">
         <f t="shared" si="0"/>
         <v>15542.177665184849</v>
       </c>
-      <c r="K18" s="40">
+      <c r="K18" s="36">
         <f t="shared" si="1"/>
         <v>6.1669336957502079</v>
       </c>
@@ -10716,20 +13759,20 @@
       <c r="E19" s="25">
         <v>17686.435319250617</v>
       </c>
-      <c r="G19" s="34" t="s">
+      <c r="G19" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="39">
+      <c r="H19" s="35">
         <v>40584.051668135726</v>
       </c>
-      <c r="I19" s="39">
+      <c r="I19" s="35">
         <v>17686.435319250617</v>
       </c>
-      <c r="J19" s="39">
+      <c r="J19" s="35">
         <f t="shared" si="0"/>
         <v>22897.616348885109</v>
       </c>
-      <c r="K19" s="40">
+      <c r="K19" s="36">
         <f t="shared" si="1"/>
         <v>9.0854759774502281</v>
       </c>
@@ -10744,20 +13787,20 @@
       <c r="E20" s="25">
         <v>27457.589327155347</v>
       </c>
-      <c r="G20" s="34" t="s">
+      <c r="G20" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="39">
+      <c r="H20" s="35">
         <v>54921.168032069829</v>
       </c>
-      <c r="I20" s="39">
+      <c r="I20" s="35">
         <v>27457.589327155347</v>
       </c>
-      <c r="J20" s="39">
+      <c r="J20" s="41">
         <f t="shared" si="0"/>
         <v>27463.578704914482</v>
       </c>
-      <c r="K20" s="40">
+      <c r="K20" s="36">
         <f t="shared" si="1"/>
         <v>10.89719037896551</v>
       </c>
@@ -10772,20 +13815,20 @@
       <c r="E21" s="25">
         <v>12329.825463510902</v>
       </c>
-      <c r="G21" s="34" t="s">
+      <c r="G21" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="39">
+      <c r="H21" s="35">
         <v>29814.737223800861</v>
       </c>
-      <c r="I21" s="39">
+      <c r="I21" s="35">
         <v>12329.825463510902</v>
       </c>
-      <c r="J21" s="39">
+      <c r="J21" s="35">
         <f t="shared" si="0"/>
         <v>17484.911760289957</v>
       </c>
-      <c r="K21" s="40">
+      <c r="K21" s="36">
         <f t="shared" si="1"/>
         <v>6.9377852849598591</v>
       </c>
@@ -10800,20 +13843,20 @@
       <c r="E22" s="25">
         <v>21479.790045378508</v>
       </c>
-      <c r="G22" s="34" t="s">
+      <c r="G22" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="39">
+      <c r="H22" s="35">
         <v>45995.737380548206</v>
       </c>
-      <c r="I22" s="39">
+      <c r="I22" s="35">
         <v>21479.790045378508</v>
       </c>
-      <c r="J22" s="39">
+      <c r="J22" s="35">
         <f t="shared" si="0"/>
         <v>24515.947335169698</v>
       </c>
-      <c r="K22" s="40">
+      <c r="K22" s="36">
         <f t="shared" si="1"/>
         <v>9.727608637698415</v>
       </c>
@@ -10828,20 +13871,20 @@
       <c r="E23" s="25">
         <v>11147.659288192985</v>
       </c>
-      <c r="G23" s="34" t="s">
+      <c r="G23" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="39">
+      <c r="H23" s="35">
         <v>19977.70080055821</v>
       </c>
-      <c r="I23" s="39">
+      <c r="I23" s="35">
         <v>11147.659288192985</v>
       </c>
-      <c r="J23" s="39">
+      <c r="J23" s="35">
         <f t="shared" si="0"/>
         <v>8830.0415123652256</v>
       </c>
-      <c r="K23" s="40">
+      <c r="K23" s="36">
         <f t="shared" si="1"/>
         <v>3.5036454807396895</v>
       </c>
@@ -10869,5196 +13912,988 @@
         <f t="shared" si="0"/>
         <v>252024.4003254869</v>
       </c>
-      <c r="K24" s="41">
+      <c r="K24" s="37">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
+    </row>
+    <row r="25" spans="3:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="I25" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="J25" s="43">
+        <f>MAX(J8:J23)</f>
+        <v>27767.332328338263</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="I26" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="J26" s="42">
+        <f>ROUND(LARGE(J8:J23,2),0)</f>
+        <v>27464</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+    </row>
+    <row r="28" spans="3:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+    </row>
+    <row r="29" spans="3:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+    </row>
+    <row r="30" spans="3:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+    </row>
+    <row r="31" spans="3:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+    </row>
+    <row r="32" spans="3:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+    </row>
+    <row r="33" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+    </row>
+    <row r="34" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+    </row>
+    <row r="35" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+    </row>
+    <row r="36" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+    </row>
+    <row r="37" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+    </row>
+    <row r="38" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+    </row>
+    <row r="39" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+    </row>
+    <row r="40" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+    </row>
+    <row r="41" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+    </row>
+    <row r="42" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+    </row>
+    <row r="43" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+    </row>
+    <row r="44" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+    </row>
+    <row r="45" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+    </row>
+    <row r="46" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+    </row>
+    <row r="47" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+    </row>
+    <row r="48" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+    </row>
+    <row r="49" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+    </row>
+    <row r="50" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+    </row>
+    <row r="51" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+    </row>
+    <row r="52" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+    </row>
+    <row r="53" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+    </row>
+    <row r="54" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+    </row>
+    <row r="55" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+    </row>
+    <row r="56" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+    </row>
+    <row r="57" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+    </row>
+    <row r="58" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+    </row>
+    <row r="59" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+    </row>
+    <row r="60" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+    </row>
+    <row r="61" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+    </row>
+    <row r="62" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+    </row>
+    <row r="63" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+    </row>
+    <row r="64" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+    </row>
+    <row r="65" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+    </row>
+    <row r="66" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+    </row>
+    <row r="67" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+    </row>
+    <row r="68" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+    </row>
+    <row r="69" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+    </row>
+    <row r="70" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+    </row>
+    <row r="71" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+    </row>
+    <row r="72" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+    </row>
+    <row r="73" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+    </row>
+    <row r="74" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+    </row>
+    <row r="75" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+    </row>
+    <row r="76" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76"/>
+    </row>
+    <row r="77" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+    </row>
+    <row r="78" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78"/>
+    </row>
+    <row r="79" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+    </row>
+    <row r="80" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+    </row>
+    <row r="81" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+    </row>
+    <row r="82" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+    </row>
+    <row r="83" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+    </row>
+    <row r="84" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+    </row>
+    <row r="85" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+    </row>
+    <row r="86" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+    </row>
+    <row r="87" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87"/>
+    </row>
+    <row r="88" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88"/>
+    </row>
+    <row r="89" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+    </row>
+    <row r="90" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+    </row>
+    <row r="91" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="E91"/>
+    </row>
+    <row r="92" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C92"/>
+      <c r="D92"/>
+      <c r="E92"/>
+    </row>
+    <row r="93" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93"/>
+    </row>
+    <row r="94" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C94"/>
+      <c r="D94"/>
+      <c r="E94"/>
+    </row>
+    <row r="95" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95"/>
+    </row>
+    <row r="96" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="E96"/>
+    </row>
+    <row r="97" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C97"/>
+      <c r="D97"/>
+      <c r="E97"/>
+    </row>
+    <row r="98" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C98"/>
+      <c r="D98"/>
+      <c r="E98"/>
+    </row>
+    <row r="99" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99"/>
+    </row>
+    <row r="100" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="E100"/>
+    </row>
+    <row r="101" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101"/>
+    </row>
+    <row r="102" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C102"/>
+      <c r="D102"/>
+      <c r="E102"/>
+    </row>
+    <row r="103" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C103"/>
+      <c r="D103"/>
+      <c r="E103"/>
+    </row>
+    <row r="104" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C104"/>
+      <c r="D104"/>
+      <c r="E104"/>
+    </row>
+    <row r="105" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C105"/>
+      <c r="D105"/>
+      <c r="E105"/>
+    </row>
+    <row r="106" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C106"/>
+      <c r="D106"/>
+      <c r="E106"/>
+    </row>
+    <row r="107" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C107"/>
+      <c r="D107"/>
+      <c r="E107"/>
+    </row>
+    <row r="108" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C108"/>
+      <c r="D108"/>
+      <c r="E108"/>
+    </row>
+    <row r="109" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C109"/>
+      <c r="D109"/>
+      <c r="E109"/>
+    </row>
+    <row r="110" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C110"/>
+      <c r="D110"/>
+      <c r="E110"/>
+    </row>
+    <row r="111" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C111"/>
+      <c r="D111"/>
+      <c r="E111"/>
+    </row>
+    <row r="112" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C112"/>
+      <c r="D112"/>
+      <c r="E112"/>
+    </row>
+    <row r="113" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C113"/>
+      <c r="D113"/>
+      <c r="E113"/>
+    </row>
+    <row r="114" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C114"/>
+      <c r="D114"/>
+      <c r="E114"/>
+    </row>
+    <row r="115" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C115"/>
+      <c r="D115"/>
+      <c r="E115"/>
+    </row>
+    <row r="116" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C116"/>
+      <c r="D116"/>
+      <c r="E116"/>
+    </row>
+    <row r="117" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C117"/>
+      <c r="D117"/>
+      <c r="E117"/>
+    </row>
+    <row r="118" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C118"/>
+      <c r="D118"/>
+      <c r="E118"/>
+    </row>
+    <row r="119" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C119"/>
+      <c r="D119"/>
+      <c r="E119"/>
+    </row>
+    <row r="120" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C120"/>
+      <c r="D120"/>
+      <c r="E120"/>
+    </row>
+    <row r="121" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C121"/>
+      <c r="D121"/>
+      <c r="E121"/>
+    </row>
+    <row r="122" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C122"/>
+      <c r="D122"/>
+      <c r="E122"/>
+    </row>
+    <row r="123" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C123"/>
+      <c r="D123"/>
+      <c r="E123"/>
+    </row>
+    <row r="124" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C124"/>
+      <c r="D124"/>
+      <c r="E124"/>
+    </row>
+    <row r="125" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C125"/>
+      <c r="D125"/>
+      <c r="E125"/>
+    </row>
+    <row r="126" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C126"/>
+      <c r="D126"/>
+      <c r="E126"/>
+    </row>
+    <row r="127" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C127"/>
+      <c r="D127"/>
+      <c r="E127"/>
+    </row>
+    <row r="128" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C128"/>
+      <c r="D128"/>
+      <c r="E128"/>
+    </row>
+    <row r="129" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C129"/>
+      <c r="D129"/>
+      <c r="E129"/>
+    </row>
+    <row r="130" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C130"/>
+      <c r="D130"/>
+      <c r="E130"/>
+    </row>
+    <row r="131" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C131"/>
+      <c r="D131"/>
+      <c r="E131"/>
+    </row>
+    <row r="132" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C132"/>
+      <c r="D132"/>
+      <c r="E132"/>
+    </row>
+    <row r="133" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C133"/>
+      <c r="D133"/>
+      <c r="E133"/>
+    </row>
+    <row r="134" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C134"/>
+      <c r="D134"/>
+      <c r="E134"/>
+    </row>
+    <row r="135" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C135"/>
+      <c r="D135"/>
+      <c r="E135"/>
+    </row>
+    <row r="136" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C136"/>
+      <c r="D136"/>
+      <c r="E136"/>
+    </row>
+    <row r="137" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C137"/>
+      <c r="D137"/>
+      <c r="E137"/>
+    </row>
+    <row r="138" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C138"/>
+      <c r="D138"/>
+      <c r="E138"/>
+    </row>
+    <row r="139" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C139"/>
+      <c r="D139"/>
+      <c r="E139"/>
+    </row>
+    <row r="140" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C140"/>
+      <c r="D140"/>
+      <c r="E140"/>
+    </row>
+    <row r="141" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C141"/>
+      <c r="D141"/>
+      <c r="E141"/>
+    </row>
+    <row r="142" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C142"/>
+      <c r="D142"/>
+      <c r="E142"/>
+    </row>
+    <row r="143" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C143"/>
+      <c r="D143"/>
+      <c r="E143"/>
+    </row>
+    <row r="144" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C144"/>
+      <c r="D144"/>
+      <c r="E144"/>
+    </row>
+    <row r="145" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C145"/>
+      <c r="D145"/>
+      <c r="E145"/>
+    </row>
+    <row r="146" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C146"/>
+      <c r="D146"/>
+      <c r="E146"/>
+    </row>
+    <row r="147" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C147"/>
+      <c r="D147"/>
+      <c r="E147"/>
+    </row>
+    <row r="148" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C148"/>
+      <c r="D148"/>
+      <c r="E148"/>
+    </row>
+    <row r="149" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C149"/>
+      <c r="D149"/>
+      <c r="E149"/>
+    </row>
+    <row r="150" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C150"/>
+      <c r="D150"/>
+      <c r="E150"/>
+    </row>
+    <row r="151" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C151"/>
+      <c r="D151"/>
+      <c r="E151"/>
+    </row>
+    <row r="152" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C152"/>
+      <c r="D152"/>
+      <c r="E152"/>
+    </row>
+    <row r="153" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C153"/>
+      <c r="D153"/>
+      <c r="E153"/>
+    </row>
+    <row r="154" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C154"/>
+      <c r="D154"/>
+      <c r="E154"/>
+    </row>
+    <row r="155" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C155"/>
+      <c r="D155"/>
+      <c r="E155"/>
+    </row>
+    <row r="156" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C156"/>
+      <c r="D156"/>
+      <c r="E156"/>
+    </row>
+    <row r="157" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C157"/>
+      <c r="D157"/>
+      <c r="E157"/>
+    </row>
+    <row r="158" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C158"/>
+      <c r="D158"/>
+      <c r="E158"/>
+    </row>
+    <row r="159" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C159"/>
+      <c r="D159"/>
+      <c r="E159"/>
+    </row>
+    <row r="160" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C160"/>
+      <c r="D160"/>
+      <c r="E160"/>
+    </row>
+    <row r="161" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C161"/>
+      <c r="D161"/>
+      <c r="E161"/>
+    </row>
+    <row r="162" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C162"/>
+      <c r="D162"/>
+      <c r="E162"/>
+    </row>
+    <row r="163" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C163"/>
+      <c r="D163"/>
+      <c r="E163"/>
+    </row>
+    <row r="164" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C164"/>
+      <c r="D164"/>
+      <c r="E164"/>
+    </row>
+    <row r="165" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C165"/>
+      <c r="D165"/>
+      <c r="E165"/>
+    </row>
+    <row r="166" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C166"/>
+      <c r="D166"/>
+      <c r="E166"/>
+    </row>
+    <row r="167" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C167"/>
+      <c r="D167"/>
+      <c r="E167"/>
+    </row>
+    <row r="168" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C168"/>
+      <c r="D168"/>
+      <c r="E168"/>
+    </row>
+    <row r="169" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C169"/>
+      <c r="D169"/>
+      <c r="E169"/>
+    </row>
+    <row r="170" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C170"/>
+      <c r="D170"/>
+      <c r="E170"/>
+    </row>
+    <row r="171" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C171"/>
+      <c r="D171"/>
+      <c r="E171"/>
+    </row>
+    <row r="172" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C172"/>
+      <c r="D172"/>
+      <c r="E172"/>
+    </row>
+    <row r="173" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C173"/>
+      <c r="D173"/>
+      <c r="E173"/>
+    </row>
+    <row r="174" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C174"/>
+      <c r="D174"/>
+      <c r="E174"/>
+    </row>
+    <row r="175" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C175"/>
+      <c r="D175"/>
+      <c r="E175"/>
+    </row>
+    <row r="176" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C176"/>
+      <c r="D176"/>
+      <c r="E176"/>
+    </row>
+    <row r="177" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C177"/>
+      <c r="D177"/>
+      <c r="E177"/>
+    </row>
+    <row r="178" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C178"/>
+      <c r="D178"/>
+      <c r="E178"/>
+    </row>
+    <row r="179" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C179"/>
+      <c r="D179"/>
+      <c r="E179"/>
+    </row>
+    <row r="180" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C180"/>
+      <c r="D180"/>
+      <c r="E180"/>
+    </row>
+    <row r="181" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C181"/>
+      <c r="D181"/>
+      <c r="E181"/>
+    </row>
+    <row r="182" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C182"/>
+      <c r="D182"/>
+      <c r="E182"/>
+    </row>
+    <row r="183" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C183"/>
+      <c r="D183"/>
+      <c r="E183"/>
+    </row>
+    <row r="184" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C184"/>
+      <c r="D184"/>
+      <c r="E184"/>
+    </row>
+    <row r="185" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C185"/>
+      <c r="D185"/>
+      <c r="E185"/>
+    </row>
+    <row r="186" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C186"/>
+      <c r="D186"/>
+      <c r="E186"/>
+    </row>
+    <row r="187" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C187"/>
+      <c r="D187"/>
+      <c r="E187"/>
+    </row>
+    <row r="188" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C188"/>
+      <c r="D188"/>
+      <c r="E188"/>
+    </row>
+    <row r="189" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C189"/>
+      <c r="D189"/>
+      <c r="E189"/>
+    </row>
+    <row r="190" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C190"/>
+      <c r="D190"/>
+      <c r="E190"/>
+    </row>
+    <row r="191" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C191"/>
+      <c r="D191"/>
+      <c r="E191"/>
+    </row>
+    <row r="192" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C192"/>
+      <c r="D192"/>
+      <c r="E192"/>
+    </row>
+    <row r="193" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C193"/>
+      <c r="D193"/>
+      <c r="E193"/>
+    </row>
+    <row r="194" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C194"/>
+      <c r="D194"/>
+      <c r="E194"/>
+    </row>
+    <row r="195" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C195"/>
+      <c r="D195"/>
+      <c r="E195"/>
+    </row>
+    <row r="196" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C196"/>
+      <c r="D196"/>
+      <c r="E196"/>
+    </row>
+    <row r="197" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C197"/>
+      <c r="D197"/>
+      <c r="E197"/>
+    </row>
+    <row r="198" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C198"/>
+      <c r="D198"/>
+      <c r="E198"/>
+    </row>
+    <row r="199" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C199"/>
+      <c r="D199"/>
+      <c r="E199"/>
+    </row>
+    <row r="200" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C200"/>
+      <c r="D200"/>
+      <c r="E200"/>
+    </row>
+    <row r="201" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C201"/>
+      <c r="D201"/>
+      <c r="E201"/>
+    </row>
+    <row r="202" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C202"/>
+      <c r="D202"/>
+      <c r="E202"/>
+    </row>
+    <row r="203" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C203"/>
+      <c r="D203"/>
+      <c r="E203"/>
+    </row>
+    <row r="204" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C204"/>
+      <c r="D204"/>
+      <c r="E204"/>
+    </row>
+    <row r="205" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C205"/>
+      <c r="D205"/>
+      <c r="E205"/>
+    </row>
+    <row r="206" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C206"/>
+      <c r="D206"/>
+      <c r="E206"/>
+    </row>
+    <row r="207" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C207"/>
+      <c r="D207"/>
+      <c r="E207"/>
+    </row>
+    <row r="208" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C208"/>
+      <c r="D208"/>
+      <c r="E208"/>
+    </row>
+    <row r="209" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C209"/>
+      <c r="D209"/>
+      <c r="E209"/>
+    </row>
+    <row r="210" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C210"/>
+      <c r="D210"/>
+      <c r="E210"/>
+    </row>
+    <row r="211" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C211"/>
+      <c r="D211"/>
+      <c r="E211"/>
+    </row>
+    <row r="212" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C212"/>
+      <c r="D212"/>
+      <c r="E212"/>
+    </row>
+    <row r="213" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C213"/>
+      <c r="D213"/>
+      <c r="E213"/>
+    </row>
+    <row r="214" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C214"/>
+      <c r="D214"/>
+      <c r="E214"/>
+    </row>
+    <row r="215" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C215"/>
+      <c r="D215"/>
+      <c r="E215"/>
+    </row>
+    <row r="216" spans="3:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C216"/>
+      <c r="D216"/>
+      <c r="E216"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43563424-04E6-474F-8AF6-8B9986BEBDB0}">
-  <dimension ref="B2:I211"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="N206" sqref="N206"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="9.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" customWidth="1"/>
-    <col min="8" max="9" width="13.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="36" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="37">
-        <v>44526.264790399946</v>
-      </c>
-      <c r="H3" s="37">
-        <v>26807.780388826301</v>
-      </c>
-      <c r="I3" s="35">
-        <f>G3-H3</f>
-        <v>17718.484401573645</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="35">
-        <v>2600</v>
-      </c>
-      <c r="D4" s="35">
-        <v>1391</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="37">
-        <v>2600</v>
-      </c>
-      <c r="H4" s="37">
-        <v>1391</v>
-      </c>
-      <c r="I4" s="35">
-        <f>G4-H4</f>
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="35">
-        <v>3120</v>
-      </c>
-      <c r="D5" s="35">
-        <v>1404</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="37">
-        <v>1980</v>
-      </c>
-      <c r="H5" s="37">
-        <v>1101.672</v>
-      </c>
-      <c r="I5" s="35">
-        <f>G5-H5</f>
-        <v>878.32799999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="35">
-        <v>440</v>
-      </c>
-      <c r="D6" s="35">
-        <v>268.39999999999998</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="37">
-        <v>2802.8</v>
-      </c>
-      <c r="H6" s="37">
-        <v>1621.8570368000003</v>
-      </c>
-      <c r="I6" s="35">
-        <f>G6-H6</f>
-        <v>1180.9429631999999</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="35">
-        <v>2839.9999999999995</v>
-      </c>
-      <c r="D7" s="35">
-        <v>1533.6</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="37">
-        <v>3136.98</v>
-      </c>
-      <c r="H7" s="37">
-        <v>1851.5369448576002</v>
-      </c>
-      <c r="I7" s="35">
-        <f>G7-H7</f>
-        <v>1285.4430551423998</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="35">
-        <v>3360</v>
-      </c>
-      <c r="D8" s="35">
-        <v>1811.0400000000002</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="37">
-        <v>1712.7910799999997</v>
-      </c>
-      <c r="H8" s="37">
-        <v>1031.1579553300946</v>
-      </c>
-      <c r="I8" s="35">
-        <f>G8-H8</f>
-        <v>681.6331246699051</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="35">
-        <v>3320</v>
-      </c>
-      <c r="D9" s="35">
-        <v>1593.6</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="37">
-        <v>3461.7410828000006</v>
-      </c>
-      <c r="H9" s="37">
-        <v>2042.4031048117042</v>
-      </c>
-      <c r="I9" s="35">
-        <f>G9-H9</f>
-        <v>1419.3379779882964</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="35">
-        <v>840</v>
-      </c>
-      <c r="D10" s="35">
-        <v>352.8</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="37">
-        <v>4361.7937643280002</v>
-      </c>
-      <c r="H10" s="37">
-        <v>2676.3650285452568</v>
-      </c>
-      <c r="I10" s="35">
-        <f>G10-H10</f>
-        <v>1685.4287357827434</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="35">
-        <v>4680</v>
-      </c>
-      <c r="D11" s="35">
-        <v>2569.3200000000002</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="37">
-        <v>5400.3160891680009</v>
-      </c>
-      <c r="H11" s="37">
-        <v>3446.1385891363693</v>
-      </c>
-      <c r="I11" s="35">
-        <f>G11-H11</f>
-        <v>1954.1775000316316</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="35">
-        <v>760</v>
-      </c>
-      <c r="D12" s="35">
-        <v>418.00000000000006</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="37">
-        <v>4555.7066528221258</v>
-      </c>
-      <c r="H12" s="37">
-        <v>2819.9476383815781</v>
-      </c>
-      <c r="I12" s="35">
-        <f>G12-H12</f>
-        <v>1735.7590144405476</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="35">
-        <v>1520</v>
-      </c>
-      <c r="D13" s="35">
-        <v>820.80000000000007</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="37">
-        <v>4510.1495862939037</v>
-      </c>
-      <c r="H13" s="37">
-        <v>2509.4472298139281</v>
-      </c>
-      <c r="I13" s="35">
-        <f>G13-H13</f>
-        <v>2000.7023564799756</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="35">
-        <v>1800</v>
-      </c>
-      <c r="D14" s="35">
-        <v>882</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" s="37">
-        <v>5241.2685718615476</v>
-      </c>
-      <c r="H14" s="37">
-        <v>3155.4203235905684</v>
-      </c>
-      <c r="I14" s="35">
-        <f>G14-H14</f>
-        <v>2085.8482482709792</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="35">
-        <v>2280</v>
-      </c>
-      <c r="D15" s="35">
-        <v>889.2</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="37">
-        <v>4762.7179631263634</v>
-      </c>
-      <c r="H15" s="37">
-        <v>3160.8345375591989</v>
-      </c>
-      <c r="I15" s="35">
-        <f>G15-H15</f>
-        <v>1601.8834255671645</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="35">
-        <v>3040</v>
-      </c>
-      <c r="D16" s="35">
-        <v>1605.1200000000001</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="37">
-        <v>23156.108007201063</v>
-      </c>
-      <c r="H16" s="37">
-        <v>11159.524520507244</v>
-      </c>
-      <c r="I16" s="35">
-        <f>G16-H16</f>
-        <v>11996.583486693818</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="35">
-        <v>2960</v>
-      </c>
-      <c r="D17" s="35">
-        <v>1036</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="37">
-        <v>3120</v>
-      </c>
-      <c r="H17" s="37">
-        <v>1404</v>
-      </c>
-      <c r="I17" s="35">
-        <f>G17-H17</f>
-        <v>1716</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="35">
-        <v>4640</v>
-      </c>
-      <c r="D18" s="35">
-        <v>2041.6</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="37">
-        <v>3652</v>
-      </c>
-      <c r="H18" s="37">
-        <v>1725.5700000000002</v>
-      </c>
-      <c r="I18" s="35">
-        <f>G18-H18</f>
-        <v>1926.4299999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="35">
-        <v>1800</v>
-      </c>
-      <c r="D19" s="35">
-        <v>936</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="37">
-        <v>3492.72</v>
-      </c>
-      <c r="H19" s="37">
-        <v>1683.3164040000001</v>
-      </c>
-      <c r="I19" s="35">
-        <f>G19-H19</f>
-        <v>1809.4035959999997</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="G20" s="37">
-        <v>1714.8824000000002</v>
-      </c>
-      <c r="H20" s="37">
-        <v>843.01732413360014</v>
-      </c>
-      <c r="I20" s="35">
-        <f>G20-H20</f>
-        <v>871.86507586640005</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="35">
-        <v>1980</v>
-      </c>
-      <c r="D21" s="35">
-        <v>1101.672</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21" s="37">
-        <v>1560.5429840000002</v>
-      </c>
-      <c r="H21" s="37">
-        <v>790.16013791042349</v>
-      </c>
-      <c r="I21" s="35">
-        <f>G21-H21</f>
-        <v>770.38284608957667</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="35">
-        <v>3652</v>
-      </c>
-      <c r="D22" s="35">
-        <v>1725.5700000000002</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" s="37">
-        <v>1669.78099288</v>
-      </c>
-      <c r="H22" s="37">
-        <v>837.01663408851152</v>
-      </c>
-      <c r="I22" s="35">
-        <f>G22-H22</f>
-        <v>832.76435879148846</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="35">
-        <v>924</v>
-      </c>
-      <c r="D23" s="35">
-        <v>591.822</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" s="37">
-        <v>1703.1766127376002</v>
-      </c>
-      <c r="H23" s="37">
-        <v>845.21939710257902</v>
-      </c>
-      <c r="I23" s="35">
-        <f>G23-H23</f>
-        <v>857.95721563502116</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="35">
-        <v>924</v>
-      </c>
-      <c r="D24" s="35">
-        <v>488.98079999999999</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24" s="37">
-        <v>1771.3036772471044</v>
-      </c>
-      <c r="H24" s="37">
-        <v>852.65732779708185</v>
-      </c>
-      <c r="I24" s="35">
-        <f>G24-H24</f>
-        <v>918.64634945002251</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="35">
-        <v>3916</v>
-      </c>
-      <c r="D25" s="35">
-        <v>2279.5819200000005</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="G25" s="37">
-        <v>1966.147081744286</v>
-      </c>
-      <c r="H25" s="37">
-        <v>965.37862653185607</v>
-      </c>
-      <c r="I25" s="35">
-        <f>G25-H25</f>
-        <v>1000.7684552124299</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="35">
-        <v>3652</v>
-      </c>
-      <c r="D26" s="35">
-        <v>1893.1967999999999</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G26" s="37">
-        <v>996.9804348649684</v>
-      </c>
-      <c r="H26" s="37">
-        <v>471.0732554736976</v>
-      </c>
-      <c r="I26" s="35">
-        <f>G26-H26</f>
-        <v>525.9071793912708</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="35">
-        <v>1804</v>
-      </c>
-      <c r="D27" s="35">
-        <v>780.41039999999998</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27" s="37">
-        <v>957.10121747036965</v>
-      </c>
-      <c r="H27" s="37">
-        <v>484.61544330689281</v>
-      </c>
-      <c r="I27" s="35">
-        <f>G27-H27</f>
-        <v>472.48577416347683</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="35">
-        <v>4268</v>
-      </c>
-      <c r="D28" s="35">
-        <v>2577.4452000000006</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="G28" s="37">
-        <v>551.47260625673675</v>
-      </c>
-      <c r="H28" s="37">
-        <v>257.49997016260198</v>
-      </c>
-      <c r="I28" s="35">
-        <f>G28-H28</f>
-        <v>293.97263609413477</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="35">
-        <v>1716</v>
-      </c>
-      <c r="D29" s="35">
-        <v>953.23800000000017</v>
-      </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="37">
-        <v>11853.232016708831</v>
-      </c>
-      <c r="H29" s="37">
-        <v>7378.9088759684</v>
-      </c>
-      <c r="I29" s="35">
-        <f>G29-H29</f>
-        <v>4474.323140740431</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="35">
-        <v>2112</v>
-      </c>
-      <c r="D30" s="35">
-        <v>1197.5040000000001</v>
-      </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="G30" s="37">
-        <v>440</v>
-      </c>
-      <c r="H30" s="37">
-        <v>268.39999999999998</v>
-      </c>
-      <c r="I30" s="35">
-        <f>G30-H30</f>
-        <v>171.60000000000002</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="35">
-        <v>2420</v>
-      </c>
-      <c r="D31" s="35">
-        <v>1114.6519999999998</v>
-      </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="G31" s="37">
-        <v>924</v>
-      </c>
-      <c r="H31" s="37">
-        <v>591.822</v>
-      </c>
-      <c r="I31" s="35">
-        <f>G31-H31</f>
-        <v>332.178</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="35">
-        <v>3388</v>
-      </c>
-      <c r="D32" s="35">
-        <v>1374.1728000000001</v>
-      </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="G32" s="37">
-        <v>474.32</v>
-      </c>
-      <c r="H32" s="37">
-        <v>312.91601879999996</v>
-      </c>
-      <c r="I32" s="35">
-        <f>G32-H32</f>
-        <v>161.40398120000003</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="35">
-        <v>3783.9999999999995</v>
-      </c>
-      <c r="D33" s="35">
-        <v>1818.1363199999998</v>
-      </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="G33" s="37">
-        <v>878.35440000000006</v>
-      </c>
-      <c r="H33" s="37">
-        <v>561.71330418588002</v>
-      </c>
-      <c r="I33" s="35">
-        <f>G33-H33</f>
-        <v>316.64109581412004</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="35">
-        <v>1936</v>
-      </c>
-      <c r="D34" s="35">
-        <v>745.36</v>
-      </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="G34" s="37">
-        <v>418.68226399999998</v>
-      </c>
-      <c r="H34" s="37">
-        <v>262.3826097241469</v>
-      </c>
-      <c r="I34" s="35">
-        <f>G34-H34</f>
-        <v>156.29965427585307</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="35">
-        <v>6424</v>
-      </c>
-      <c r="D35" s="35">
-        <v>2770.0288</v>
-      </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="G35" s="37">
-        <v>855.25367928000003</v>
-      </c>
-      <c r="H35" s="37">
-        <v>550.57261363682369</v>
-      </c>
-      <c r="I35" s="35">
-        <f>G35-H35</f>
-        <v>304.68106564317634</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="35">
-        <v>1100</v>
-      </c>
-      <c r="D36" s="35">
-        <v>566.28000000000009</v>
-      </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="G36" s="37">
-        <v>456.94982292960003</v>
-      </c>
-      <c r="H36" s="37">
-        <v>271.96108163047626</v>
-      </c>
-      <c r="I36" s="35">
-        <f>G36-H36</f>
-        <v>184.98874129912377</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B37" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="G37" s="37">
-        <v>475.22781584678404</v>
-      </c>
-      <c r="H37" s="37">
-        <v>288.85036702148852</v>
-      </c>
-      <c r="I37" s="35">
-        <f>G37-H37</f>
-        <v>186.37744882529552</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B38" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="35">
-        <v>2802.8</v>
-      </c>
-      <c r="D38" s="35">
-        <v>1621.8570368000003</v>
-      </c>
-      <c r="E38" s="1"/>
-      <c r="F38" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="G38" s="37">
-        <v>1007.0509443080489</v>
-      </c>
-      <c r="H38" s="37">
-        <v>599.85818310595278</v>
-      </c>
-      <c r="I38" s="35">
-        <f>G38-H38</f>
-        <v>407.19276120209611</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B39" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="35">
-        <v>3492.72</v>
-      </c>
-      <c r="D39" s="35">
-        <v>1683.3164040000001</v>
-      </c>
-      <c r="E39" s="1"/>
-      <c r="F39" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G39" s="37">
-        <v>1329.3072464866245</v>
-      </c>
-      <c r="H39" s="37">
-        <v>851.42129137468294</v>
-      </c>
-      <c r="I39" s="35">
-        <f>G39-H39</f>
-        <v>477.8859551119416</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="35">
-        <v>474.32</v>
-      </c>
-      <c r="D40" s="35">
-        <v>312.91601879999996</v>
-      </c>
-      <c r="E40" s="1"/>
-      <c r="F40" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G40" s="37">
-        <v>2187.6599256465588</v>
-      </c>
-      <c r="H40" s="37">
-        <v>1370.9773970269669</v>
-      </c>
-      <c r="I40" s="35">
-        <f>G40-H40</f>
-        <v>816.68252861959195</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="35">
-        <v>1121.1199999999999</v>
-      </c>
-      <c r="D41" s="35">
-        <v>581.43076991999988</v>
-      </c>
-      <c r="E41" s="1"/>
-      <c r="F41" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="G41" s="37">
-        <v>2406.425918211215</v>
-      </c>
-      <c r="H41" s="37">
-        <v>1448.034009461981</v>
-      </c>
-      <c r="I41" s="35">
-        <f>G41-H41</f>
-        <v>958.39190874923406</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="35">
-        <v>3018.4000000000005</v>
-      </c>
-      <c r="D42" s="35">
-        <v>1721.9295878400003</v>
-      </c>
-      <c r="E42" s="1"/>
-      <c r="F42" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="G42" s="37">
-        <v>24412.62437208393</v>
-      </c>
-      <c r="H42" s="37">
-        <v>12877.495293914986</v>
-      </c>
-      <c r="I42" s="35">
-        <f>G42-H42</f>
-        <v>11535.129078168944</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="35">
-        <v>3492.72</v>
-      </c>
-      <c r="D43" s="35">
-        <v>1792.5197875199999</v>
-      </c>
-      <c r="E43" s="1"/>
-      <c r="F43" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="G43" s="37">
-        <v>2839.9999999999995</v>
-      </c>
-      <c r="H43" s="37">
-        <v>1533.6</v>
-      </c>
-      <c r="I43" s="35">
-        <f>G43-H43</f>
-        <v>1306.3999999999996</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B44" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" s="35">
-        <v>1336.72</v>
-      </c>
-      <c r="D44" s="35">
-        <v>595.61302416000001</v>
-      </c>
-      <c r="E44" s="1"/>
-      <c r="F44" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="G44" s="37">
-        <v>924</v>
-      </c>
-      <c r="H44" s="37">
-        <v>488.98079999999999</v>
-      </c>
-      <c r="I44" s="35">
-        <f>G44-H44</f>
-        <v>435.01920000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B45" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C45" s="35">
-        <v>5045.04</v>
-      </c>
-      <c r="D45" s="35">
-        <v>2955.2986663200004</v>
-      </c>
-      <c r="E45" s="1"/>
-      <c r="F45" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="G45" s="37">
-        <v>1121.1199999999999</v>
-      </c>
-      <c r="H45" s="37">
-        <v>581.43076991999988</v>
-      </c>
-      <c r="I45" s="35">
-        <f>G45-H45</f>
-        <v>539.68923008000002</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="35">
-        <v>1250.48</v>
-      </c>
-      <c r="D46" s="35">
-        <v>701.58805640000014</v>
-      </c>
-      <c r="E46" s="1"/>
-      <c r="F46" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="G46" s="37">
-        <v>1505.7503999999999</v>
-      </c>
-      <c r="H46" s="37">
-        <v>765.28812445747189</v>
-      </c>
-      <c r="I46" s="35">
-        <f>G46-H46</f>
-        <v>740.462275542528</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" s="35">
-        <v>2500.96</v>
-      </c>
-      <c r="D47" s="35">
-        <v>1432.2247632000001</v>
-      </c>
-      <c r="E47" s="1"/>
-      <c r="F47" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="G47" s="37">
-        <v>1370.2328639999998</v>
-      </c>
-      <c r="H47" s="37">
-        <v>675.51982745861039</v>
-      </c>
-      <c r="I47" s="35">
-        <f>G47-H47</f>
-        <v>694.71303654138944</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" s="35">
-        <v>2285.36</v>
-      </c>
-      <c r="D48" s="35">
-        <v>1031.5840796800001</v>
-      </c>
-      <c r="E48" s="1"/>
-      <c r="F48" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="G48" s="37">
-        <v>2280.6764780800004</v>
-      </c>
-      <c r="H48" s="37">
-        <v>1146.8525284040652</v>
-      </c>
-      <c r="I48" s="35">
-        <f>G48-H48</f>
-        <v>1133.8239496759352</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C49" s="35">
-        <v>4182.6400000000003</v>
-      </c>
-      <c r="D49" s="35">
-        <v>1713.4435718400002</v>
-      </c>
-      <c r="E49" s="1"/>
-      <c r="F49" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="G49" s="37">
-        <v>3157.1078675136005</v>
-      </c>
-      <c r="H49" s="37">
-        <v>1651.0744343206866</v>
-      </c>
-      <c r="I49" s="35">
-        <f>G49-H49</f>
-        <v>1506.0334331929139</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B50" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" s="35">
-        <v>4570.72</v>
-      </c>
-      <c r="D50" s="35">
-        <v>2240.062336512</v>
-      </c>
-      <c r="E50" s="1"/>
-      <c r="F50" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="G50" s="37">
-        <v>1987.3163208138244</v>
-      </c>
-      <c r="H50" s="37">
-        <v>1080.8802233607594</v>
-      </c>
-      <c r="I50" s="35">
-        <f>G50-H50</f>
-        <v>906.43609745306503</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B51" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" s="35">
-        <v>1897.28</v>
-      </c>
-      <c r="D51" s="35">
-        <v>759.67091200000004</v>
-      </c>
-      <c r="E51" s="1"/>
-      <c r="F51" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="G51" s="37">
-        <v>2685.4691848214638</v>
-      </c>
-      <c r="H51" s="37">
-        <v>1519.0220711188913</v>
-      </c>
-      <c r="I51" s="35">
-        <f>G51-H51</f>
-        <v>1166.4471137025726</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" s="35">
-        <v>5001.92</v>
-      </c>
-      <c r="D52" s="35">
-        <v>2243.1010201600002</v>
-      </c>
-      <c r="E52" s="1"/>
-      <c r="F52" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G52" s="37">
-        <v>2183.8619049423119</v>
-      </c>
-      <c r="H52" s="37">
-        <v>1155.6997200954715</v>
-      </c>
-      <c r="I52" s="35">
-        <f>G52-H52</f>
-        <v>1028.1621848468403</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C53" s="35">
-        <v>646.79999999999995</v>
-      </c>
-      <c r="D53" s="35">
-        <v>342.96181919999998</v>
-      </c>
-      <c r="E53" s="1"/>
-      <c r="F53" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G53" s="37">
-        <v>2552.2699132543189</v>
-      </c>
-      <c r="H53" s="37">
-        <v>1258.2598014736861</v>
-      </c>
-      <c r="I53" s="35">
-        <f>G53-H53</f>
-        <v>1294.0101117806328</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="G54" s="37">
-        <v>1804.8194386584114</v>
-      </c>
-      <c r="H54" s="37">
-        <v>1020.8869933053431</v>
-      </c>
-      <c r="I54" s="35">
-        <f>G54-H54</f>
-        <v>783.93244535306826</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55" s="35">
-        <v>3136.98</v>
-      </c>
-      <c r="D55" s="35">
-        <v>1851.5369448576002</v>
-      </c>
-      <c r="E55" s="1"/>
-      <c r="F55" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="G55" s="37">
-        <v>22605.848001625593</v>
-      </c>
-      <c r="H55" s="37">
-        <v>12615.72324308289</v>
-      </c>
-      <c r="I55" s="35">
-        <f>G55-H55</f>
-        <v>9990.1247585427027</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B56" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" s="35">
-        <v>1714.8824000000002</v>
-      </c>
-      <c r="D56" s="35">
-        <v>843.01732413360014</v>
-      </c>
-      <c r="E56" s="1"/>
-      <c r="F56" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="G56" s="37">
-        <v>3360</v>
-      </c>
-      <c r="H56" s="37">
-        <v>1811.0400000000002</v>
-      </c>
-      <c r="I56" s="35">
-        <f>G56-H56</f>
-        <v>1548.9599999999998</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B57" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" s="35">
-        <v>878.35440000000006</v>
-      </c>
-      <c r="D57" s="35">
-        <v>561.71330418588002</v>
-      </c>
-      <c r="E57" s="1"/>
-      <c r="F57" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="G57" s="37">
-        <v>3916</v>
-      </c>
-      <c r="H57" s="37">
-        <v>2279.5819200000005</v>
-      </c>
-      <c r="I57" s="35">
-        <f>G57-H57</f>
-        <v>1636.4180799999995</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="35">
-        <v>1505.7503999999999</v>
-      </c>
-      <c r="D58" s="35">
-        <v>765.28812445747189</v>
-      </c>
-      <c r="E58" s="1"/>
-      <c r="F58" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="G58" s="37">
-        <v>3018.4000000000005</v>
-      </c>
-      <c r="H58" s="37">
-        <v>1721.9295878400003</v>
-      </c>
-      <c r="I58" s="35">
-        <f>G58-H58</f>
-        <v>1296.4704121600003</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B59" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59" s="35">
-        <v>1254.7919999999999</v>
-      </c>
-      <c r="D59" s="35">
-        <v>701.51411408601598</v>
-      </c>
-      <c r="E59" s="1"/>
-      <c r="F59" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="G59" s="37">
-        <v>1254.7919999999999</v>
-      </c>
-      <c r="H59" s="37">
-        <v>701.51411408601598</v>
-      </c>
-      <c r="I59" s="35">
-        <f>G59-H59</f>
-        <v>553.27788591398394</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" s="35">
-        <v>2969.6743999999999</v>
-      </c>
-      <c r="D60" s="35">
-        <v>1508.8435727016958</v>
-      </c>
-      <c r="E60" s="1"/>
-      <c r="F60" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="G60" s="37">
-        <v>1903.1012000000003</v>
-      </c>
-      <c r="H60" s="37">
-        <v>1053.3234423001531</v>
-      </c>
-      <c r="I60" s="35">
-        <f>G60-H60</f>
-        <v>849.77775769984714</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="C61" s="35">
-        <v>1296.6183999999998</v>
-      </c>
-      <c r="D61" s="35">
-        <v>600.85441877260791</v>
-      </c>
-      <c r="E61" s="1"/>
-      <c r="F61" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="G61" s="37">
-        <v>1629.0546271999999</v>
-      </c>
-      <c r="H61" s="37">
-        <v>874.5955206106629</v>
-      </c>
-      <c r="I61" s="35">
-        <f>G61-H61</f>
-        <v>754.45910658933701</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B62" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C62" s="35">
-        <v>5730.2168000000011</v>
-      </c>
-      <c r="D62" s="35">
-        <v>3255.9636801217689</v>
-      </c>
-      <c r="E62" s="1"/>
-      <c r="F62" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="G62" s="37">
-        <v>1246.2267898079999</v>
-      </c>
-      <c r="H62" s="37">
-        <v>655.68426180181393</v>
-      </c>
-      <c r="I62" s="35">
-        <f>G62-H62</f>
-        <v>590.54252800618599</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B63" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C63" s="35">
-        <v>2049.4936000000002</v>
-      </c>
-      <c r="D63" s="35">
-        <v>1161.3774180654802</v>
-      </c>
-      <c r="E63" s="1"/>
-      <c r="F63" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="G63" s="37">
-        <v>1296.0758614003203</v>
-      </c>
-      <c r="H63" s="37">
-        <v>709.18809756484222</v>
-      </c>
-      <c r="I63" s="35">
-        <f>G63-H63</f>
-        <v>586.88776383547804</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B64" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" s="35">
-        <v>2425.9312</v>
-      </c>
-      <c r="D64" s="35">
-        <v>1430.93576091312</v>
-      </c>
-      <c r="E64" s="1"/>
-      <c r="F64" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="G64" s="37">
-        <v>1438.6442061543555</v>
-      </c>
-      <c r="H64" s="37">
-        <v>795.07077617994469</v>
-      </c>
-      <c r="I64" s="35">
-        <f>G64-H64</f>
-        <v>643.57342997441083</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B65" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C65" s="35">
-        <v>1798.5352</v>
-      </c>
-      <c r="D65" s="35">
-        <v>795.60046272044792</v>
-      </c>
-      <c r="E65" s="1"/>
-      <c r="F65" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G65" s="37">
-        <v>1424.2577640928118</v>
-      </c>
-      <c r="H65" s="37">
-        <v>829.08892963370772</v>
-      </c>
-      <c r="I65" s="35">
-        <f>G65-H65</f>
-        <v>595.16883445910412</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C66" s="35">
-        <v>4057.1608000000001</v>
-      </c>
-      <c r="D66" s="35">
-        <v>1678.6606673316483</v>
-      </c>
-      <c r="E66" s="1"/>
-      <c r="F66" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G66" s="37">
-        <v>1367.2874535290991</v>
-      </c>
-      <c r="H66" s="37">
-        <v>756.76266042241014</v>
-      </c>
-      <c r="I66" s="35">
-        <f>G66-H66</f>
-        <v>610.524793106689</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B67" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C67" s="35">
-        <v>4015.3343999999997</v>
-      </c>
-      <c r="D67" s="35">
-        <v>1987.5523662618623</v>
-      </c>
-      <c r="E67" s="1"/>
-      <c r="F67" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="G67" s="37">
-        <v>752.00809944100467</v>
-      </c>
-      <c r="H67" s="37">
-        <v>427.94393264333848</v>
-      </c>
-      <c r="I67" s="35">
-        <f>G67-H67</f>
-        <v>324.06416679766619</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B68" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C68" s="35">
-        <v>3513.4176000000002</v>
-      </c>
-      <c r="D68" s="35">
-        <v>1463.0433033216002</v>
-      </c>
-      <c r="E68" s="1"/>
-      <c r="F68" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="G68" s="37">
-        <v>32319.657244112575</v>
-      </c>
-      <c r="H68" s="37">
-        <v>16821.60038566107</v>
-      </c>
-      <c r="I68" s="35">
-        <f>G68-H68</f>
-        <v>15498.056858451506</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B69" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C69" s="35">
-        <v>4015.3343999999997</v>
-      </c>
-      <c r="D69" s="35">
-        <v>1872.6954282516479</v>
-      </c>
-      <c r="E69" s="1"/>
-      <c r="F69" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="G69" s="37">
-        <v>3320</v>
-      </c>
-      <c r="H69" s="37">
-        <v>1593.6</v>
-      </c>
-      <c r="I69" s="35">
-        <f>G69-H69</f>
-        <v>1726.4</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B70" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C70" s="35">
-        <v>1463.9240000000002</v>
-      </c>
-      <c r="D70" s="35">
-        <v>799.52402497968023</v>
-      </c>
-      <c r="E70" s="1"/>
-      <c r="F70" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="G70" s="37">
-        <v>3652</v>
-      </c>
-      <c r="H70" s="37">
-        <v>1893.1967999999999</v>
-      </c>
-      <c r="I70" s="35">
-        <f>G70-H70</f>
-        <v>1758.8032000000001</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B71" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="C71" s="35"/>
-      <c r="D71" s="35"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="G71" s="37">
-        <v>3492.72</v>
-      </c>
-      <c r="H71" s="37">
-        <v>1792.5197875199999</v>
-      </c>
-      <c r="I71" s="35">
-        <f>G71-H71</f>
-        <v>1700.2002124799999</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B72" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C72" s="35">
-        <v>1712.7910799999997</v>
-      </c>
-      <c r="D72" s="35">
-        <v>1031.1579553300946</v>
-      </c>
-      <c r="E72" s="1"/>
-      <c r="F72" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="G72" s="37">
-        <v>2969.6743999999999</v>
-      </c>
-      <c r="H72" s="37">
-        <v>1508.8435727016958</v>
-      </c>
-      <c r="I72" s="35">
-        <f>G72-H72</f>
-        <v>1460.830827298304</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B73" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" s="35">
-        <v>1560.5429840000002</v>
-      </c>
-      <c r="D73" s="35">
-        <v>790.16013791042349</v>
-      </c>
-      <c r="E73" s="1"/>
-      <c r="F73" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="G73" s="37">
-        <v>2512.0935840000002</v>
-      </c>
-      <c r="H73" s="37">
-        <v>1301.8812376900441</v>
-      </c>
-      <c r="I73" s="35">
-        <f>G73-H73</f>
-        <v>1210.212346309956</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B74" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C74" s="35">
-        <v>418.68226399999998</v>
-      </c>
-      <c r="D74" s="35">
-        <v>262.3826097241469</v>
-      </c>
-      <c r="E74" s="1"/>
-      <c r="F74" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="G74" s="37">
-        <v>3095.20379168</v>
-      </c>
-      <c r="H74" s="37">
-        <v>1668.238508165342</v>
-      </c>
-      <c r="I74" s="35">
-        <f>G74-H74</f>
-        <v>1426.965283514658</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B75" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C75" s="35">
-        <v>1370.2328639999998</v>
-      </c>
-      <c r="D75" s="35">
-        <v>675.51982745861039</v>
-      </c>
-      <c r="E75" s="1"/>
-      <c r="F75" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="G75" s="37">
-        <v>3157.1078675136005</v>
-      </c>
-      <c r="H75" s="37">
-        <v>1667.5712127620759</v>
-      </c>
-      <c r="I75" s="35">
-        <f>G75-H75</f>
-        <v>1489.5366547515246</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B76" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C76" s="35">
-        <v>1903.1012000000003</v>
-      </c>
-      <c r="D76" s="35">
-        <v>1053.3234423001531</v>
-      </c>
-      <c r="E76" s="1"/>
-      <c r="F76" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="G76" s="37">
-        <v>3283.3921822141447</v>
-      </c>
-      <c r="H76" s="37">
-        <v>1751.6168018852845</v>
-      </c>
-      <c r="I76" s="35">
-        <f>G76-H76</f>
-        <v>1531.7753803288601</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B77" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C77" s="35">
-        <v>2512.0935840000002</v>
-      </c>
-      <c r="D77" s="35">
-        <v>1301.8812376900441</v>
-      </c>
-      <c r="E77" s="1"/>
-      <c r="F77" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="G77" s="37">
-        <v>2685.4691848214638</v>
-      </c>
-      <c r="H77" s="37">
-        <v>1475.6173081229601</v>
-      </c>
-      <c r="I77" s="35">
-        <f>G77-H77</f>
-        <v>1209.8518766985037</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B78" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="C78" s="35">
-        <v>1941.1632239999999</v>
-      </c>
-      <c r="D78" s="35">
-        <v>908.53258422545491</v>
-      </c>
-      <c r="E78" s="1"/>
-      <c r="F78" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G78" s="37">
-        <v>1709.1093169113742</v>
-      </c>
-      <c r="H78" s="37">
-        <v>886.00226988685631</v>
-      </c>
-      <c r="I78" s="35">
-        <f>G78-H78</f>
-        <v>823.1070470245179</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B79" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C79" s="35">
-        <v>5290.6213360000002</v>
-      </c>
-      <c r="D79" s="35">
-        <v>2946.0577297856239</v>
-      </c>
-      <c r="E79" s="1"/>
-      <c r="F79" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G79" s="37">
-        <v>1640.7449442349191</v>
-      </c>
-      <c r="H79" s="37">
-        <v>850.30871156201283</v>
-      </c>
-      <c r="I79" s="35">
-        <f>G79-H79</f>
-        <v>790.43623267290627</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B80" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C80" s="35">
-        <v>2626.2796560000006</v>
-      </c>
-      <c r="D80" s="35">
-        <v>1503.1044277782619</v>
-      </c>
-      <c r="E80" s="1"/>
-      <c r="F80" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="G80" s="37">
-        <v>802.1419727370718</v>
-      </c>
-      <c r="H80" s="37">
-        <v>432.20417536480119</v>
-      </c>
-      <c r="I80" s="35">
-        <f>G80-H80</f>
-        <v>369.93779737227061</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B81" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C81" s="35">
-        <v>1941.1632239999999</v>
-      </c>
-      <c r="D81" s="35">
-        <v>1122.095415356868</v>
-      </c>
-      <c r="E81" s="1"/>
-      <c r="F81" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="G81" s="37">
-        <v>27124.323335742109</v>
-      </c>
-      <c r="H81" s="37">
-        <v>12614.707039631432</v>
-      </c>
-      <c r="I81" s="35">
-        <f>G81-H81</f>
-        <v>14509.616296110677</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B82" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C82" s="35">
-        <v>1636.6670319999998</v>
-      </c>
-      <c r="D82" s="35">
-        <v>731.23638528636366</v>
-      </c>
-      <c r="E82" s="1"/>
-      <c r="F82" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="G82" s="37">
-        <v>840</v>
-      </c>
-      <c r="H82" s="37">
-        <v>352.8</v>
-      </c>
-      <c r="I82" s="35">
-        <f>G82-H82</f>
-        <v>487.2</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B83" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C83" s="35">
-        <v>3692.0163280000002</v>
-      </c>
-      <c r="D83" s="35">
-        <v>1588.6844555626722</v>
-      </c>
-      <c r="E83" s="1"/>
-      <c r="F83" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="G83" s="37">
-        <v>1804</v>
-      </c>
-      <c r="H83" s="37">
-        <v>780.41039999999998</v>
-      </c>
-      <c r="I83" s="35">
-        <f>G83-H83</f>
-        <v>1023.5896</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B84" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C84" s="35">
-        <v>3653.9543039999999</v>
-      </c>
-      <c r="D84" s="35">
-        <v>1772.4992002323288</v>
-      </c>
-      <c r="E84" s="1"/>
-      <c r="F84" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="G84" s="37">
-        <v>1336.72</v>
-      </c>
-      <c r="H84" s="37">
-        <v>595.61302416000001</v>
-      </c>
-      <c r="I84" s="35">
-        <f>G84-H84</f>
-        <v>741.10697584000002</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B85" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C85" s="35">
-        <v>2816.5897760000003</v>
-      </c>
-      <c r="D85" s="35">
-        <v>1208.0592396077009</v>
-      </c>
-      <c r="E85" s="1"/>
-      <c r="F85" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="G85" s="37">
-        <v>1296.6183999999998</v>
-      </c>
-      <c r="H85" s="37">
-        <v>600.85441877260791</v>
-      </c>
-      <c r="I85" s="35">
-        <f>G85-H85</f>
-        <v>695.76398122739192</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B86" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C86" s="35">
-        <v>3653.9543039999999</v>
-      </c>
-      <c r="D86" s="35">
-        <v>1772.3189532973597</v>
-      </c>
-      <c r="E86" s="1"/>
-      <c r="F86" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="G86" s="37">
-        <v>1941.1632239999999</v>
-      </c>
-      <c r="H86" s="37">
-        <v>908.53258422545491</v>
-      </c>
-      <c r="I86" s="35">
-        <f>G86-H86</f>
-        <v>1032.630639774545</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B87" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C87" s="35">
-        <v>1332.17084</v>
-      </c>
-      <c r="D87" s="35">
-        <v>749.39386861345417</v>
-      </c>
-      <c r="E87" s="1"/>
-      <c r="F87" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="G87" s="37">
-        <v>2077.04464968</v>
-      </c>
-      <c r="H87" s="37">
-        <v>1001.2937610748741</v>
-      </c>
-      <c r="I87" s="35">
-        <f>G87-H87</f>
-        <v>1075.750888605126</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B88" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="C88" s="35"/>
-      <c r="D88" s="35"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="G88" s="37">
-        <v>2533.9944726096001</v>
-      </c>
-      <c r="H88" s="37">
-        <v>1233.7941723964598</v>
-      </c>
-      <c r="I88" s="35">
-        <f>G88-H88</f>
-        <v>1300.2003002131403</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B89" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C89" s="35">
-        <v>3461.7410828000006</v>
-      </c>
-      <c r="D89" s="35">
-        <v>2042.4031048117042</v>
-      </c>
-      <c r="E89" s="1"/>
-      <c r="F89" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="G89" s="37">
-        <v>2635.3542515139843</v>
-      </c>
-      <c r="H89" s="37">
-        <v>1257.4830205064718</v>
-      </c>
-      <c r="I89" s="35">
-        <f>G89-H89</f>
-        <v>1377.8712310075125</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B90" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C90" s="35">
-        <v>1669.78099288</v>
-      </c>
-      <c r="D90" s="35">
-        <v>837.01663408851152</v>
-      </c>
-      <c r="E90" s="1"/>
-      <c r="F90" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="G90" s="37">
-        <v>3404.7912878986413</v>
-      </c>
-      <c r="H90" s="37">
-        <v>1673.3656385491558</v>
-      </c>
-      <c r="I90" s="35">
-        <f>G90-H90</f>
-        <v>1731.4256493494854</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B91" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C91" s="35">
-        <v>855.25367928000003</v>
-      </c>
-      <c r="D91" s="35">
-        <v>550.57261363682369</v>
-      </c>
-      <c r="E91" s="1"/>
-      <c r="F91" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G91" s="37">
-        <v>3370.7433750196546</v>
-      </c>
-      <c r="H91" s="37">
-        <v>1458.1835840335025</v>
-      </c>
-      <c r="I91" s="35">
-        <f>G91-H91</f>
-        <v>1912.5597909861522</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B92" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C92" s="35">
-        <v>2280.6764780800004</v>
-      </c>
-      <c r="D92" s="35">
-        <v>1146.8525284040652</v>
-      </c>
-      <c r="E92" s="1"/>
-      <c r="F92" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G92" s="37">
-        <v>2324.3886709994686</v>
-      </c>
-      <c r="H92" s="37">
-        <v>1087.8955565910298</v>
-      </c>
-      <c r="I92" s="35">
-        <f>G92-H92</f>
-        <v>1236.4931144084387</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B93" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C93" s="35">
-        <v>1629.0546271999999</v>
-      </c>
-      <c r="D93" s="35">
-        <v>874.5955206106629</v>
-      </c>
-      <c r="E93" s="1"/>
-      <c r="F93" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="G93" s="37">
-        <v>3559.5050040207557</v>
-      </c>
-      <c r="H93" s="37">
-        <v>1664.4808793218765</v>
-      </c>
-      <c r="I93" s="35">
-        <f>G93-H93</f>
-        <v>1895.0241246988792</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B94" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C94" s="35">
-        <v>3095.20379168</v>
-      </c>
-      <c r="D94" s="35">
-        <v>1668.238508165342</v>
-      </c>
-      <c r="E94" s="1"/>
-      <c r="F94" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="G94" s="37">
-        <v>66356.11501741549</v>
-      </c>
-      <c r="H94" s="37">
-        <v>38588.782689077227</v>
-      </c>
-      <c r="I94" s="35">
-        <f>G94-H94</f>
-        <v>27767.332328338263</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B95" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="C95" s="35">
-        <v>2077.04464968</v>
-      </c>
-      <c r="D95" s="35">
-        <v>1001.2937610748741</v>
-      </c>
-      <c r="E95" s="1"/>
-      <c r="F95" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="G95" s="37">
-        <v>4680</v>
-      </c>
-      <c r="H95" s="37">
-        <v>2569.3200000000002</v>
-      </c>
-      <c r="I95" s="35">
-        <f>G95-H95</f>
-        <v>2110.6799999999998</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B96" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C96" s="35">
-        <v>6475.49214312</v>
-      </c>
-      <c r="D96" s="35">
-        <v>3750.081393029966</v>
-      </c>
-      <c r="E96" s="1"/>
-      <c r="F96" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="G96" s="37">
-        <v>4268</v>
-      </c>
-      <c r="H96" s="37">
-        <v>2577.4452000000006</v>
-      </c>
-      <c r="I96" s="35">
-        <f>G96-H96</f>
-        <v>1690.5547999999994</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B97" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C97" s="35">
-        <v>2402.8555751199997</v>
-      </c>
-      <c r="D97" s="35">
-        <v>1416.4885797305926</v>
-      </c>
-      <c r="E97" s="1"/>
-      <c r="F97" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="G97" s="37">
-        <v>5045.04</v>
-      </c>
-      <c r="H97" s="37">
-        <v>2955.2986663200004</v>
-      </c>
-      <c r="I97" s="35">
-        <f>G97-H97</f>
-        <v>2089.7413336799996</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B98" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C98" s="35">
-        <v>1669.78099288</v>
-      </c>
-      <c r="D98" s="35">
-        <v>994.17873819327406</v>
-      </c>
-      <c r="E98" s="1"/>
-      <c r="F98" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="G98" s="37">
-        <v>5730.2168000000011</v>
-      </c>
-      <c r="H98" s="37">
-        <v>3255.9636801217689</v>
-      </c>
-      <c r="I98" s="35">
-        <f>G98-H98</f>
-        <v>2474.2531198782322</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B99" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C99" s="35">
-        <v>529.44275384000002</v>
-      </c>
-      <c r="D99" s="35">
-        <v>241.277397249302</v>
-      </c>
-      <c r="E99" s="1"/>
-      <c r="F99" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="G99" s="37">
-        <v>5290.6213360000002</v>
-      </c>
-      <c r="H99" s="37">
-        <v>2946.0577297856239</v>
-      </c>
-      <c r="I99" s="35">
-        <f>G99-H99</f>
-        <v>2344.5636062143763</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B100" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C100" s="35">
-        <v>3950.4574709600001</v>
-      </c>
-      <c r="D100" s="35">
-        <v>1767.8880621501416</v>
-      </c>
-      <c r="E100" s="1"/>
-      <c r="F100" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="G100" s="37">
-        <v>6475.49214312</v>
-      </c>
-      <c r="H100" s="37">
-        <v>3750.081393029966</v>
-      </c>
-      <c r="I100" s="35">
-        <f>G100-H100</f>
-        <v>2725.4107500900341</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B101" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C101" s="35">
-        <v>3909.7311052800001</v>
-      </c>
-      <c r="D101" s="35">
-        <v>1915.5398856910779</v>
-      </c>
-      <c r="E101" s="1"/>
-      <c r="F101" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="G101" s="37">
-        <v>5774.1841261104009</v>
-      </c>
-      <c r="H101" s="37">
-        <v>3377.3799075649467</v>
-      </c>
-      <c r="I101" s="35">
-        <f>G101-H101</f>
-        <v>2396.8042185454542</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B102" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C102" s="35">
-        <v>2199.2237467200002</v>
-      </c>
-      <c r="D102" s="35">
-        <v>924.4004000978689</v>
-      </c>
-      <c r="E102" s="1"/>
-      <c r="F102" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="G102" s="37">
-        <v>6869.2020654216976</v>
-      </c>
-      <c r="H102" s="37">
-        <v>4098.2245492463198</v>
-      </c>
-      <c r="I102" s="35">
-        <f>G102-H102</f>
-        <v>2770.9775161753778</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B103" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C103" s="35">
-        <v>3095.20379168</v>
-      </c>
-      <c r="D103" s="35">
-        <v>1516.3148651558615</v>
-      </c>
-      <c r="E103" s="1"/>
-      <c r="F103" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="G103" s="37">
-        <v>4747.525880309373</v>
-      </c>
-      <c r="H103" s="37">
-        <v>2775.7661497002796</v>
-      </c>
-      <c r="I103" s="35">
-        <f>G103-H103</f>
-        <v>1971.7597306090934</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B104" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C104" s="35">
-        <v>1425.4227988000002</v>
-      </c>
-      <c r="D104" s="35">
-        <v>785.81441062806823</v>
-      </c>
-      <c r="E104" s="1"/>
-      <c r="F104" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G104" s="37">
-        <v>5174.8032095372164</v>
-      </c>
-      <c r="H104" s="37">
-        <v>3125.0636582395255</v>
-      </c>
-      <c r="I104" s="35">
-        <f>G104-H104</f>
-        <v>2049.7395512976909</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B105" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="C105" s="35"/>
-      <c r="D105" s="35"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G105" s="37">
-        <v>6335.0985346848274</v>
-      </c>
-      <c r="H105" s="37">
-        <v>3527.6699695110847</v>
-      </c>
-      <c r="I105" s="35">
-        <f>G105-H105</f>
-        <v>2807.4285651737428</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B106" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C106" s="35">
-        <v>4361.7937643280002</v>
-      </c>
-      <c r="D106" s="35">
-        <v>2676.3650285452568</v>
-      </c>
-      <c r="E106" s="1"/>
-      <c r="F106" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="G106" s="37">
-        <v>5965.9309222319716</v>
-      </c>
-      <c r="H106" s="37">
-        <v>3630.5117855577018</v>
-      </c>
-      <c r="I106" s="35">
-        <f>G106-H106</f>
-        <v>2335.4191366742698</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B107" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107" s="35">
-        <v>1703.1766127376002</v>
-      </c>
-      <c r="D107" s="35">
-        <v>845.21939710257902</v>
-      </c>
-      <c r="E107" s="1"/>
-      <c r="F107" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G107" s="37">
-        <v>27237.485018576208</v>
-      </c>
-      <c r="H107" s="37">
-        <v>15851.521037777205</v>
-      </c>
-      <c r="I107" s="35">
-        <f>G107-H107</f>
-        <v>11385.963980799002</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B108" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C108" s="35">
-        <v>456.94982292960003</v>
-      </c>
-      <c r="D108" s="35">
-        <v>271.96108163047626</v>
-      </c>
-      <c r="E108" s="1"/>
-      <c r="F108" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="G108" s="37">
-        <v>760</v>
-      </c>
-      <c r="H108" s="37">
-        <v>418.00000000000006</v>
-      </c>
-      <c r="I108" s="35">
-        <f>G108-H108</f>
-        <v>341.99999999999994</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B109" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C109" s="35">
-        <v>3157.1078675136005</v>
-      </c>
-      <c r="D109" s="35">
-        <v>1651.0744343206866</v>
-      </c>
-      <c r="E109" s="1"/>
-      <c r="F109" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="G109" s="37">
-        <v>1716</v>
-      </c>
-      <c r="H109" s="37">
-        <v>953.23800000000017</v>
-      </c>
-      <c r="I109" s="35">
-        <f>G109-H109</f>
-        <v>762.76199999999983</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B110" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C110" s="35">
-        <v>1246.2267898079999</v>
-      </c>
-      <c r="D110" s="35">
-        <v>655.68426180181393</v>
-      </c>
-      <c r="E110" s="1"/>
-      <c r="F110" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="G110" s="37">
-        <v>1250.48</v>
-      </c>
-      <c r="H110" s="37">
-        <v>701.58805640000014</v>
-      </c>
-      <c r="I110" s="35">
-        <f>G110-H110</f>
-        <v>548.89194359999988</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B111" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C111" s="35">
-        <v>3157.1078675136005</v>
-      </c>
-      <c r="D111" s="35">
-        <v>1667.5712127620759</v>
-      </c>
-      <c r="E111" s="1"/>
-      <c r="F111" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="G111" s="37">
-        <v>2049.4936000000002</v>
-      </c>
-      <c r="H111" s="37">
-        <v>1161.3774180654802</v>
-      </c>
-      <c r="I111" s="35">
-        <f>G111-H111</f>
-        <v>888.11618193452</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B112" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="C112" s="35">
-        <v>2533.9944726096001</v>
-      </c>
-      <c r="D112" s="35">
-        <v>1233.7941723964598</v>
-      </c>
-      <c r="E112" s="1"/>
-      <c r="F112" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="G112" s="37">
-        <v>2626.2796560000006</v>
-      </c>
-      <c r="H112" s="37">
-        <v>1503.1044277782619</v>
-      </c>
-      <c r="I112" s="35">
-        <f>G112-H112</f>
-        <v>1123.1752282217387</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B113" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C113" s="35">
-        <v>5774.1841261104009</v>
-      </c>
-      <c r="D113" s="35">
-        <v>3377.3799075649467</v>
-      </c>
-      <c r="E113" s="1"/>
-      <c r="F113" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="G113" s="37">
-        <v>2402.8555751199997</v>
-      </c>
-      <c r="H113" s="37">
-        <v>1416.4885797305926</v>
-      </c>
-      <c r="I113" s="35">
-        <f>G113-H113</f>
-        <v>986.36699538940707</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B114" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C114" s="35">
-        <v>2035.5037566864003</v>
-      </c>
-      <c r="D114" s="35">
-        <v>1247.9312403988549</v>
-      </c>
-      <c r="E114" s="1"/>
-      <c r="F114" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="G114" s="37">
-        <v>2035.5037566864003</v>
-      </c>
-      <c r="H114" s="37">
-        <v>1247.9312403988549</v>
-      </c>
-      <c r="I114" s="35">
-        <f>G114-H114</f>
-        <v>787.57251628754534</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B115" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C115" s="35">
-        <v>1287.7676828016001</v>
-      </c>
-      <c r="D115" s="35">
-        <v>743.72814025905336</v>
-      </c>
-      <c r="E115" s="1"/>
-      <c r="F115" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="G115" s="37">
-        <v>2116.9239069538562</v>
-      </c>
-      <c r="H115" s="37">
-        <v>1271.8915202145129</v>
-      </c>
-      <c r="I115" s="35">
-        <f>G115-H115</f>
-        <v>845.03238673934334</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B116" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C116" s="35">
-        <v>1370.8494687888001</v>
-      </c>
-      <c r="D116" s="35">
-        <v>637.21731809536425</v>
-      </c>
-      <c r="E116" s="1"/>
-      <c r="F116" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="G116" s="37">
-        <v>2829.3336054368992</v>
-      </c>
-      <c r="H116" s="37">
-        <v>1750.9196107880391</v>
-      </c>
-      <c r="I116" s="35">
-        <f>G116-H116</f>
-        <v>1078.4139946488601</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B117" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C117" s="35">
-        <v>4444.8755503152006</v>
-      </c>
-      <c r="D117" s="35">
-        <v>2048.8218783109123</v>
-      </c>
-      <c r="E117" s="1"/>
-      <c r="F117" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G117" s="37">
-        <v>2801.0402693825299</v>
-      </c>
-      <c r="H117" s="37">
-        <v>1555.9778696419958</v>
-      </c>
-      <c r="I117" s="35">
-        <f>G117-H117</f>
-        <v>1245.0623997405341</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B118" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C118" s="35">
-        <v>4818.7435872576007</v>
-      </c>
-      <c r="D118" s="35">
-        <v>2408.1209672965392</v>
-      </c>
-      <c r="E118" s="1"/>
-      <c r="F118" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G118" s="37">
-        <v>2688.9986586072287</v>
-      </c>
-      <c r="H118" s="37">
-        <v>1539.0005328672169</v>
-      </c>
-      <c r="I118" s="35">
-        <f>G118-H118</f>
-        <v>1149.9981257400118</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B119" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C119" s="35">
-        <v>1412.3903617824001</v>
-      </c>
-      <c r="D119" s="35">
-        <v>611.4805935491836</v>
-      </c>
-      <c r="E119" s="1"/>
-      <c r="F119" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="G119" s="37">
-        <v>3960.5759903892917</v>
-      </c>
-      <c r="H119" s="37">
-        <v>2332.0037818922497</v>
-      </c>
-      <c r="I119" s="35">
-        <f>G119-H119</f>
-        <v>1628.5722084970421</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B120" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C120" s="35">
-        <v>3157.1078675136005</v>
-      </c>
-      <c r="D120" s="35">
-        <v>1515.7083392097993</v>
-      </c>
-      <c r="E120" s="1"/>
-      <c r="F120" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G120" s="37">
-        <v>24974.207387894301</v>
-      </c>
-      <c r="H120" s="37">
-        <v>14559.69471863563</v>
-      </c>
-      <c r="I120" s="35">
-        <f>G120-H120</f>
-        <v>10414.512669258671</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B121" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C121" s="35">
-        <v>1453.9312547760003</v>
-      </c>
-      <c r="D121" s="35">
-        <v>825.57661980584851</v>
-      </c>
-      <c r="E121" s="1"/>
-      <c r="F121" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="G121" s="37">
-        <v>1520</v>
-      </c>
-      <c r="H121" s="37">
-        <v>820.80000000000007</v>
-      </c>
-      <c r="I121" s="35">
-        <f>G121-H121</f>
-        <v>699.19999999999993</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B122" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="C122" s="35"/>
-      <c r="D122" s="35"/>
-      <c r="E122" s="1"/>
-      <c r="F122" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="G122" s="37">
-        <v>2112</v>
-      </c>
-      <c r="H122" s="37">
-        <v>1197.5040000000001</v>
-      </c>
-      <c r="I122" s="35">
-        <f>G122-H122</f>
-        <v>914.49599999999987</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B123" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C123" s="35">
-        <v>5400.3160891680009</v>
-      </c>
-      <c r="D123" s="35">
-        <v>3446.1385891363693</v>
-      </c>
-      <c r="E123" s="1"/>
-      <c r="F123" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="G123" s="37">
-        <v>2500.96</v>
-      </c>
-      <c r="H123" s="37">
-        <v>1432.2247632000001</v>
-      </c>
-      <c r="I123" s="35">
-        <f>G123-H123</f>
-        <v>1068.7352367999999</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B124" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C124" s="35">
-        <v>1771.3036772471044</v>
-      </c>
-      <c r="D124" s="35">
-        <v>852.65732779708185</v>
-      </c>
-      <c r="E124" s="1"/>
-      <c r="F124" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="G124" s="37">
-        <v>2425.9312</v>
-      </c>
-      <c r="H124" s="37">
-        <v>1430.93576091312</v>
-      </c>
-      <c r="I124" s="35">
-        <f>G124-H124</f>
-        <v>994.99543908687997</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B125" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C125" s="35">
-        <v>475.22781584678404</v>
-      </c>
-      <c r="D125" s="35">
-        <v>288.85036702148852</v>
-      </c>
-      <c r="E125" s="1"/>
-      <c r="F125" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="G125" s="37">
-        <v>1941.1632239999999</v>
-      </c>
-      <c r="H125" s="37">
-        <v>1122.095415356868</v>
-      </c>
-      <c r="I125" s="35">
-        <f>G125-H125</f>
-        <v>819.06780864313191</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B126" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C126" s="35">
-        <v>1987.3163208138244</v>
-      </c>
-      <c r="D126" s="35">
-        <v>1080.8802233607594</v>
-      </c>
-      <c r="E126" s="1"/>
-      <c r="F126" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="G126" s="37">
-        <v>1669.78099288</v>
-      </c>
-      <c r="H126" s="37">
-        <v>994.17873819327406</v>
-      </c>
-      <c r="I126" s="35">
-        <f>G126-H126</f>
-        <v>675.60225468672593</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B127" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C127" s="35">
-        <v>1296.0758614003203</v>
-      </c>
-      <c r="D127" s="35">
-        <v>709.18809756484222</v>
-      </c>
-      <c r="E127" s="1"/>
-      <c r="F127" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="G127" s="37">
-        <v>1287.7676828016001</v>
-      </c>
-      <c r="H127" s="37">
-        <v>743.72814025905336</v>
-      </c>
-      <c r="I127" s="35">
-        <f>G127-H127</f>
-        <v>544.03954254254677</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B128" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C128" s="35">
-        <v>3283.3921822141447</v>
-      </c>
-      <c r="D128" s="35">
-        <v>1751.6168018852845</v>
-      </c>
-      <c r="E128" s="1"/>
-      <c r="F128" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="G128" s="37">
-        <v>1339.2783901136643</v>
-      </c>
-      <c r="H128" s="37">
-        <v>796.68158384549804</v>
-      </c>
-      <c r="I128" s="35">
-        <f>G128-H128</f>
-        <v>542.59680626816623</v>
-      </c>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B129" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="C129" s="35">
-        <v>2635.3542515139843</v>
-      </c>
-      <c r="D129" s="35">
-        <v>1257.4830205064718</v>
-      </c>
-      <c r="E129" s="1"/>
-      <c r="F129" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="G129" s="37">
-        <v>2445.6951504624044</v>
-      </c>
-      <c r="H129" s="37">
-        <v>1513.0371045146255</v>
-      </c>
-      <c r="I129" s="35">
-        <f>G129-H129</f>
-        <v>932.65804594777887</v>
-      </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B130" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C130" s="35">
-        <v>6869.2020654216976</v>
-      </c>
-      <c r="D130" s="35">
-        <v>4098.2245492463198</v>
-      </c>
-      <c r="E130" s="1"/>
-      <c r="F130" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G130" s="37">
-        <v>2895.9907869887174</v>
-      </c>
-      <c r="H130" s="37">
-        <v>1642.0267762226031</v>
-      </c>
-      <c r="I130" s="35">
-        <f>G130-H130</f>
-        <v>1253.9640107661144</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B131" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C131" s="35">
-        <v>2116.9239069538562</v>
-      </c>
-      <c r="D131" s="35">
-        <v>1271.8915202145129</v>
-      </c>
-      <c r="E131" s="1"/>
-      <c r="F131" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G131" s="37">
-        <v>2780.1511555091688</v>
-      </c>
-      <c r="H131" s="37">
-        <v>1607.0749883503549</v>
-      </c>
-      <c r="I131" s="35">
-        <f>G131-H131</f>
-        <v>1173.0761671588139</v>
-      </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B132" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C132" s="35">
-        <v>1339.2783901136643</v>
-      </c>
-      <c r="D132" s="35">
-        <v>796.68158384549804</v>
-      </c>
-      <c r="E132" s="1"/>
-      <c r="F132" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="G132" s="37">
-        <v>2055.4888051387466</v>
-      </c>
-      <c r="H132" s="37">
-        <v>1259.4074477802305</v>
-      </c>
-      <c r="I132" s="35">
-        <f>G132-H132</f>
-        <v>796.08135735851602</v>
-      </c>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B133" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C133" s="35">
-        <v>2289.7340218072322</v>
-      </c>
-      <c r="D133" s="35">
-        <v>1043.0590970287317</v>
-      </c>
-      <c r="E133" s="1"/>
-      <c r="F133" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="G133" s="37">
-        <v>28589.956371885684</v>
-      </c>
-      <c r="H133" s="37">
-        <v>13047.778706700836</v>
-      </c>
-      <c r="I133" s="35">
-        <f>G133-H133</f>
-        <v>15542.177665184849</v>
-      </c>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B134" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C134" s="35">
-        <v>2894.5694237940488</v>
-      </c>
-      <c r="D134" s="35">
-        <v>1374.2501470572479</v>
-      </c>
-      <c r="E134" s="1"/>
-      <c r="F134" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="G134" s="37">
-        <v>1800</v>
-      </c>
-      <c r="H134" s="37">
-        <v>882</v>
-      </c>
-      <c r="I134" s="35">
-        <f>G134-H134</f>
-        <v>918</v>
-      </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B135" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C135" s="35">
-        <v>5875.5439050147861</v>
-      </c>
-      <c r="D135" s="35">
-        <v>2994.9717431613021</v>
-      </c>
-      <c r="E135" s="1"/>
-      <c r="F135" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="G135" s="37">
-        <v>2420</v>
-      </c>
-      <c r="H135" s="37">
-        <v>1114.6519999999998</v>
-      </c>
-      <c r="I135" s="35">
-        <f>G135-H135</f>
-        <v>1305.3480000000002</v>
-      </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B136" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C136" s="35">
-        <v>1036.8606891202562</v>
-      </c>
-      <c r="D136" s="35">
-        <v>453.38768150404417</v>
-      </c>
-      <c r="E136" s="1"/>
-      <c r="F136" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="G136" s="37">
-        <v>2285.36</v>
-      </c>
-      <c r="H136" s="37">
-        <v>1031.5840796800001</v>
-      </c>
-      <c r="I136" s="35">
-        <f>G136-H136</f>
-        <v>1253.7759203200001</v>
-      </c>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B137" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C137" s="35">
-        <v>2851.3668950807046</v>
-      </c>
-      <c r="D137" s="35">
-        <v>1409.9916712560719</v>
-      </c>
-      <c r="E137" s="1"/>
-      <c r="F137" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="G137" s="37">
-        <v>1798.5352</v>
-      </c>
-      <c r="H137" s="37">
-        <v>795.60046272044792</v>
-      </c>
-      <c r="I137" s="35">
-        <f>G137-H137</f>
-        <v>1002.9347372795521</v>
-      </c>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B138" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C138" s="35">
-        <v>1080.0632178336002</v>
-      </c>
-      <c r="D138" s="35">
-        <v>631.68405366858929</v>
-      </c>
-      <c r="E138" s="1"/>
-      <c r="F138" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="G138" s="37">
-        <v>1636.6670319999998</v>
-      </c>
-      <c r="H138" s="37">
-        <v>731.23638528636366</v>
-      </c>
-      <c r="I138" s="35">
-        <f>G138-H138</f>
-        <v>905.43064671363618</v>
-      </c>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B139" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C139" s="35"/>
-      <c r="D139" s="35"/>
-      <c r="E139" s="1"/>
-      <c r="F139" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="G139" s="37">
-        <v>529.44275384000002</v>
-      </c>
-      <c r="H139" s="37">
-        <v>241.277397249302</v>
-      </c>
-      <c r="I139" s="35">
-        <f>G139-H139</f>
-        <v>288.16535659069802</v>
-      </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B140" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C140" s="35">
-        <v>4555.7066528221258</v>
-      </c>
-      <c r="D140" s="35">
-        <v>2819.9476383815781</v>
-      </c>
-      <c r="E140" s="1"/>
-      <c r="F140" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="G140" s="37">
-        <v>1370.8494687888001</v>
-      </c>
-      <c r="H140" s="37">
-        <v>637.21731809536425</v>
-      </c>
-      <c r="I140" s="35">
-        <f>G140-H140</f>
-        <v>733.63215069343585</v>
-      </c>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B141" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C141" s="35">
-        <v>1966.147081744286</v>
-      </c>
-      <c r="D141" s="35">
-        <v>965.37862653185607</v>
-      </c>
-      <c r="E141" s="1"/>
-      <c r="F141" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="G141" s="37">
-        <v>2289.7340218072322</v>
-      </c>
-      <c r="H141" s="37">
-        <v>1043.0590970287317</v>
-      </c>
-      <c r="I141" s="35">
-        <f>G141-H141</f>
-        <v>1246.6749247785006</v>
-      </c>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B142" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C142" s="35">
-        <v>1007.0509443080489</v>
-      </c>
-      <c r="D142" s="35">
-        <v>599.85818310595278</v>
-      </c>
-      <c r="E142" s="1"/>
-      <c r="F142" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="G142" s="37">
-        <v>3980.2489703603837</v>
-      </c>
-      <c r="H142" s="37">
-        <v>1849.4146283290984</v>
-      </c>
-      <c r="I142" s="35">
-        <f>G142-H142</f>
-        <v>2130.8343420312854</v>
-      </c>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B143" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C143" s="35">
-        <v>2685.4691848214638</v>
-      </c>
-      <c r="D143" s="35">
-        <v>1519.0220711188913</v>
-      </c>
-      <c r="E143" s="1"/>
-      <c r="F143" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G143" s="37">
-        <v>2990.941304594905</v>
-      </c>
-      <c r="H143" s="37">
-        <v>1377.6275648964131</v>
-      </c>
-      <c r="I143" s="35">
-        <f>G143-H143</f>
-        <v>1613.3137396984919</v>
-      </c>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B144" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C144" s="35">
-        <v>1438.6442061543555</v>
-      </c>
-      <c r="D144" s="35">
-        <v>795.07077617994469</v>
-      </c>
-      <c r="E144" s="1"/>
-      <c r="F144" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G144" s="37">
-        <v>3327.0661369208083</v>
-      </c>
-      <c r="H144" s="37">
-        <v>1486.4793925724032</v>
-      </c>
-      <c r="I144" s="35">
-        <f>G144-H144</f>
-        <v>1840.5867443484051</v>
-      </c>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B145" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C145" s="35">
-        <v>2685.4691848214638</v>
-      </c>
-      <c r="D145" s="35">
-        <v>1475.6173081229601</v>
-      </c>
-      <c r="E145" s="1"/>
-      <c r="F145" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="G145" s="37">
-        <v>4161.1114835735598</v>
-      </c>
-      <c r="H145" s="37">
-        <v>1857.630380842711</v>
-      </c>
-      <c r="I145" s="35">
-        <f>G145-H145</f>
-        <v>2303.4811027308488</v>
-      </c>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B146" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="C146" s="35">
-        <v>3404.7912878986413</v>
-      </c>
-      <c r="D146" s="35">
-        <v>1673.3656385491558</v>
-      </c>
-      <c r="E146" s="1"/>
-      <c r="F146" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="G146" s="37">
-        <v>40584.051668135726</v>
-      </c>
-      <c r="H146" s="37">
-        <v>17686.435319250617</v>
-      </c>
-      <c r="I146" s="35">
-        <f>G146-H146</f>
-        <v>22897.616348885109</v>
-      </c>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B147" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C147" s="35">
-        <v>4747.525880309373</v>
-      </c>
-      <c r="D147" s="35">
-        <v>2775.7661497002796</v>
-      </c>
-      <c r="E147" s="1"/>
-      <c r="F147" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="G147" s="37">
-        <v>2280</v>
-      </c>
-      <c r="H147" s="37">
-        <v>889.2</v>
-      </c>
-      <c r="I147" s="35">
-        <f>G147-H147</f>
-        <v>1390.8</v>
-      </c>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B148" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C148" s="35">
-        <v>2829.3336054368992</v>
-      </c>
-      <c r="D148" s="35">
-        <v>1750.9196107880391</v>
-      </c>
-      <c r="E148" s="1"/>
-      <c r="F148" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="G148" s="37">
-        <v>3388</v>
-      </c>
-      <c r="H148" s="37">
-        <v>1374.1728000000001</v>
-      </c>
-      <c r="I148" s="35">
-        <f>G148-H148</f>
-        <v>2013.8271999999999</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B149" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C149" s="35">
-        <v>2445.6951504624044</v>
-      </c>
-      <c r="D149" s="35">
-        <v>1513.0371045146255</v>
-      </c>
-      <c r="E149" s="1"/>
-      <c r="F149" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="G149" s="37">
-        <v>4182.6400000000003</v>
-      </c>
-      <c r="H149" s="37">
-        <v>1713.4435718400002</v>
-      </c>
-      <c r="I149" s="35">
-        <f>G149-H149</f>
-        <v>2469.1964281600003</v>
-      </c>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B150" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C150" s="35">
-        <v>3980.2489703603837</v>
-      </c>
-      <c r="D150" s="35">
-        <v>1849.4146283290984</v>
-      </c>
-      <c r="E150" s="1"/>
-      <c r="F150" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="G150" s="37">
-        <v>4057.1608000000001</v>
-      </c>
-      <c r="H150" s="37">
-        <v>1678.6606673316483</v>
-      </c>
-      <c r="I150" s="35">
-        <f>G150-H150</f>
-        <v>2378.5001326683519</v>
-      </c>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B151" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C151" s="35">
-        <v>3212.9720604113941</v>
-      </c>
-      <c r="D151" s="35">
-        <v>1494.9093099688741</v>
-      </c>
-      <c r="E151" s="1"/>
-      <c r="F151" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="G151" s="37">
-        <v>3692.0163280000002</v>
-      </c>
-      <c r="H151" s="37">
-        <v>1588.6844555626722</v>
-      </c>
-      <c r="I151" s="35">
-        <f>G151-H151</f>
-        <v>2103.331872437328</v>
-      </c>
-    </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B152" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C152" s="35">
-        <v>5562.7575971301749</v>
-      </c>
-      <c r="D152" s="35">
-        <v>2948.9548832016703</v>
-      </c>
-      <c r="E152" s="1"/>
-      <c r="F152" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="G152" s="37">
-        <v>3950.4574709600001</v>
-      </c>
-      <c r="H152" s="37">
-        <v>1767.8880621501416</v>
-      </c>
-      <c r="I152" s="35">
-        <f>G152-H152</f>
-        <v>2182.5694088098585</v>
-      </c>
-    </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B153" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C153" s="35">
-        <v>2110.0115023597214</v>
-      </c>
-      <c r="D153" s="35">
-        <v>913.41749254212255</v>
-      </c>
-      <c r="E153" s="1"/>
-      <c r="F153" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="G153" s="37">
-        <v>4444.8755503152006</v>
-      </c>
-      <c r="H153" s="37">
-        <v>2048.8218783109123</v>
-      </c>
-      <c r="I153" s="35">
-        <f>G153-H153</f>
-        <v>2396.0536720042883</v>
-      </c>
-    </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B154" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C154" s="35">
-        <v>3165.0172535395823</v>
-      </c>
-      <c r="D154" s="35">
-        <v>1612.0434777470671</v>
-      </c>
-      <c r="E154" s="1"/>
-      <c r="F154" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="G154" s="37">
-        <v>2894.5694237940488</v>
-      </c>
-      <c r="H154" s="37">
-        <v>1374.2501470572479</v>
-      </c>
-      <c r="I154" s="35">
-        <f>G154-H154</f>
-        <v>1520.3192767368009</v>
-      </c>
-    </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B155" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C155" s="35">
-        <v>2157.9663092315332</v>
-      </c>
-      <c r="D155" s="35">
-        <v>1274.7257866221396</v>
-      </c>
-      <c r="E155" s="1"/>
-      <c r="F155" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="G155" s="37">
-        <v>3212.9720604113941</v>
-      </c>
-      <c r="H155" s="37">
-        <v>1494.9093099688741</v>
-      </c>
-      <c r="I155" s="35">
-        <f>G155-H155</f>
-        <v>1718.0627504425199</v>
-      </c>
-    </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B156" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="C156" s="35"/>
-      <c r="D156" s="35"/>
-      <c r="E156" s="1"/>
-      <c r="F156" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G156" s="37">
-        <v>3180.8423398072805</v>
-      </c>
-      <c r="H156" s="37">
-        <v>1290.149653025833</v>
-      </c>
-      <c r="I156" s="35">
-        <f>G156-H156</f>
-        <v>1890.6926867814475</v>
-      </c>
-    </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B157" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C157" s="35">
-        <v>4510.1495862939037</v>
-      </c>
-      <c r="D157" s="35">
-        <v>2509.4472298139281</v>
-      </c>
-      <c r="E157" s="1"/>
-      <c r="F157" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G157" s="37">
-        <v>2142.0836771955892</v>
-      </c>
-      <c r="H157" s="37">
-        <v>921.74430938084436</v>
-      </c>
-      <c r="I157" s="35">
-        <f>G157-H157</f>
-        <v>1220.3393678147449</v>
-      </c>
-    </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B158" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C158" s="35">
-        <v>996.9804348649684</v>
-      </c>
-      <c r="D158" s="35">
-        <v>471.0732554736976</v>
-      </c>
-      <c r="E158" s="1"/>
-      <c r="F158" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="G158" s="37">
-        <v>3158.4340176522201</v>
-      </c>
-      <c r="H158" s="37">
-        <v>1544.5104646224395</v>
-      </c>
-      <c r="I158" s="35">
-        <f>G158-H158</f>
-        <v>1613.9235530297806</v>
-      </c>
-    </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B159" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C159" s="35">
-        <v>1329.3072464866245</v>
-      </c>
-      <c r="D159" s="35">
-        <v>851.42129137468294</v>
-      </c>
-      <c r="E159" s="1"/>
-      <c r="F159" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="G159" s="37">
-        <v>54921.168032069829</v>
-      </c>
-      <c r="H159" s="37">
-        <v>27457.589327155347</v>
-      </c>
-      <c r="I159" s="35">
-        <f>G159-H159</f>
-        <v>27463.578704914482</v>
-      </c>
-    </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B160" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C160" s="35">
-        <v>2183.8619049423119</v>
-      </c>
-      <c r="D160" s="35">
-        <v>1155.6997200954715</v>
-      </c>
-      <c r="E160" s="1"/>
-      <c r="F160" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="G160" s="37">
-        <v>3040</v>
-      </c>
-      <c r="H160" s="37">
-        <v>1605.1200000000001</v>
-      </c>
-      <c r="I160" s="35">
-        <f>G160-H160</f>
-        <v>1434.8799999999999</v>
-      </c>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B161" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C161" s="35">
-        <v>1424.2577640928118</v>
-      </c>
-      <c r="D161" s="35">
-        <v>829.08892963370772</v>
-      </c>
-      <c r="E161" s="1"/>
-      <c r="F161" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="G161" s="37">
-        <v>3783.9999999999995</v>
-      </c>
-      <c r="H161" s="37">
-        <v>1818.1363199999998</v>
-      </c>
-      <c r="I161" s="35">
-        <f>G161-H161</f>
-        <v>1965.8636799999997</v>
-      </c>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B162" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C162" s="35">
-        <v>1709.1093169113742</v>
-      </c>
-      <c r="D162" s="35">
-        <v>886.00226988685631</v>
-      </c>
-      <c r="E162" s="1"/>
-      <c r="F162" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="G162" s="37">
-        <v>4570.72</v>
-      </c>
-      <c r="H162" s="37">
-        <v>2240.062336512</v>
-      </c>
-      <c r="I162" s="35">
-        <f>G162-H162</f>
-        <v>2330.6576634880003</v>
-      </c>
-    </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B163" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="C163" s="35">
-        <v>3370.7433750196546</v>
-      </c>
-      <c r="D163" s="35">
-        <v>1458.1835840335025</v>
-      </c>
-      <c r="E163" s="1"/>
-      <c r="F163" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="G163" s="37">
-        <v>4015.3343999999997</v>
-      </c>
-      <c r="H163" s="37">
-        <v>1987.5523662618623</v>
-      </c>
-      <c r="I163" s="35">
-        <f>G163-H163</f>
-        <v>2027.7820337381374</v>
-      </c>
-    </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B164" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C164" s="35">
-        <v>5174.8032095372164</v>
-      </c>
-      <c r="D164" s="35">
-        <v>3125.0636582395255</v>
-      </c>
-      <c r="E164" s="1"/>
-      <c r="F164" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="G164" s="37">
-        <v>3653.9543039999999</v>
-      </c>
-      <c r="H164" s="37">
-        <v>1772.4992002323288</v>
-      </c>
-      <c r="I164" s="35">
-        <f>G164-H164</f>
-        <v>1881.4551037676711</v>
-      </c>
-    </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B165" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C165" s="35">
-        <v>2801.0402693825299</v>
-      </c>
-      <c r="D165" s="35">
-        <v>1555.9778696419958</v>
-      </c>
-      <c r="E165" s="1"/>
-      <c r="F165" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="G165" s="37">
-        <v>3909.7311052800001</v>
-      </c>
-      <c r="H165" s="37">
-        <v>1915.5398856910779</v>
-      </c>
-      <c r="I165" s="35">
-        <f>G165-H165</f>
-        <v>1994.1912195889222</v>
-      </c>
-    </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B166" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C166" s="35">
-        <v>2895.9907869887174</v>
-      </c>
-      <c r="D166" s="35">
-        <v>1642.0267762226031</v>
-      </c>
-      <c r="E166" s="1"/>
-      <c r="F166" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="G166" s="37">
-        <v>4818.7435872576007</v>
-      </c>
-      <c r="H166" s="37">
-        <v>2408.1209672965392</v>
-      </c>
-      <c r="I166" s="35">
-        <f>G166-H166</f>
-        <v>2410.6226199610614</v>
-      </c>
-    </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B167" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C167" s="35">
-        <v>2990.941304594905</v>
-      </c>
-      <c r="D167" s="35">
-        <v>1377.6275648964131</v>
-      </c>
-      <c r="E167" s="1"/>
-      <c r="F167" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="G167" s="37">
-        <v>5875.5439050147861</v>
-      </c>
-      <c r="H167" s="37">
-        <v>2994.9717431613021</v>
-      </c>
-      <c r="I167" s="35">
-        <f>G167-H167</f>
-        <v>2880.572161853484</v>
-      </c>
-    </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B168" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C168" s="35">
-        <v>3180.8423398072805</v>
-      </c>
-      <c r="D168" s="35">
-        <v>1290.149653025833</v>
-      </c>
-      <c r="E168" s="1"/>
-      <c r="F168" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="G168" s="37">
-        <v>5562.7575971301749</v>
-      </c>
-      <c r="H168" s="37">
-        <v>2948.9548832016703</v>
-      </c>
-      <c r="I168" s="35">
-        <f>G168-H168</f>
-        <v>2613.8027139285045</v>
-      </c>
-    </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B169" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C169" s="35">
-        <v>6456.6351972207485</v>
-      </c>
-      <c r="D169" s="35">
-        <v>3102.2840795606253</v>
-      </c>
-      <c r="E169" s="1"/>
-      <c r="F169" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G169" s="37">
-        <v>6456.6351972207485</v>
-      </c>
-      <c r="H169" s="37">
-        <v>3102.2840795606253</v>
-      </c>
-      <c r="I169" s="35">
-        <f>G169-H169</f>
-        <v>3354.3511176601232</v>
-      </c>
-    </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B170" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C170" s="35">
-        <v>2326.2876813515927</v>
-      </c>
-      <c r="D170" s="35">
-        <v>895.62075732036317</v>
-      </c>
-      <c r="E170" s="1"/>
-      <c r="F170" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G170" s="37">
-        <v>3919.5573667834178</v>
-      </c>
-      <c r="H170" s="37">
-        <v>1901.3407721828864</v>
-      </c>
-      <c r="I170" s="35">
-        <f>G170-H170</f>
-        <v>2018.2165946005314</v>
-      </c>
-    </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B171" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C171" s="35">
-        <v>3798.0207042474985</v>
-      </c>
-      <c r="D171" s="35">
-        <v>1637.7065276715214</v>
-      </c>
-      <c r="E171" s="1"/>
-      <c r="F171" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="G171" s="37">
-        <v>5314.1905693831004</v>
-      </c>
-      <c r="H171" s="37">
-        <v>2763.0067730550536</v>
-      </c>
-      <c r="I171" s="35">
-        <f>G171-H171</f>
-        <v>2551.1837963280468</v>
-      </c>
-    </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B172" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C172" s="35">
-        <v>2326.2876813515927</v>
-      </c>
-      <c r="D172" s="35">
-        <v>1197.5728983598001</v>
-      </c>
-      <c r="E172" s="1"/>
-      <c r="F172" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="G172" s="37">
-        <v>29814.737223800861</v>
-      </c>
-      <c r="H172" s="37">
-        <v>12329.825463510902</v>
-      </c>
-      <c r="I172" s="35">
-        <f>G172-H172</f>
-        <v>17484.911760289957</v>
-      </c>
-    </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B173" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="C173" s="35"/>
-      <c r="D173" s="35"/>
-      <c r="E173" s="1"/>
-      <c r="F173" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="G173" s="37">
-        <v>2960</v>
-      </c>
-      <c r="H173" s="37">
-        <v>1036</v>
-      </c>
-      <c r="I173" s="35">
-        <f>G173-H173</f>
-        <v>1924</v>
-      </c>
-    </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B174" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C174" s="35">
-        <v>5241.2685718615476</v>
-      </c>
-      <c r="D174" s="35">
-        <v>3155.4203235905684</v>
-      </c>
-      <c r="E174" s="1"/>
-      <c r="F174" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="G174" s="37">
-        <v>1936</v>
-      </c>
-      <c r="H174" s="37">
-        <v>745.36</v>
-      </c>
-      <c r="I174" s="35">
-        <f>G174-H174</f>
-        <v>1190.6399999999999</v>
-      </c>
-    </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B175" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C175" s="35">
-        <v>957.10121747036965</v>
-      </c>
-      <c r="D175" s="35">
-        <v>484.61544330689281</v>
-      </c>
-      <c r="E175" s="1"/>
-      <c r="F175" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="G175" s="37">
-        <v>1897.28</v>
-      </c>
-      <c r="H175" s="37">
-        <v>759.67091200000004</v>
-      </c>
-      <c r="I175" s="35">
-        <f>G175-H175</f>
-        <v>1137.6090879999999</v>
-      </c>
-    </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B176" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C176" s="35">
-        <v>2187.6599256465588</v>
-      </c>
-      <c r="D176" s="35">
-        <v>1370.9773970269669</v>
-      </c>
-      <c r="E176" s="1"/>
-      <c r="F176" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="G176" s="37">
-        <v>3513.4176000000002</v>
-      </c>
-      <c r="H176" s="37">
-        <v>1463.0433033216002</v>
-      </c>
-      <c r="I176" s="35">
-        <f>G176-H176</f>
-        <v>2050.3742966784002</v>
-      </c>
-    </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B177" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C177" s="35">
-        <v>2552.2699132543189</v>
-      </c>
-      <c r="D177" s="35">
-        <v>1258.2598014736861</v>
-      </c>
-      <c r="E177" s="1"/>
-      <c r="F177" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="G177" s="37">
-        <v>2816.5897760000003</v>
-      </c>
-      <c r="H177" s="37">
-        <v>1208.0592396077009</v>
-      </c>
-      <c r="I177" s="35">
-        <f>G177-H177</f>
-        <v>1608.5305363922994</v>
-      </c>
-    </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B178" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C178" s="35">
-        <v>1367.2874535290991</v>
-      </c>
-      <c r="D178" s="35">
-        <v>756.76266042241014</v>
-      </c>
-      <c r="E178" s="1"/>
-      <c r="F178" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="G178" s="37">
-        <v>2199.2237467200002</v>
-      </c>
-      <c r="H178" s="37">
-        <v>924.4004000978689</v>
-      </c>
-      <c r="I178" s="35">
-        <f>G178-H178</f>
-        <v>1274.8233466221313</v>
-      </c>
-    </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B179" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C179" s="35">
-        <v>1640.7449442349191</v>
-      </c>
-      <c r="D179" s="35">
-        <v>850.30871156201283</v>
-      </c>
-      <c r="E179" s="1"/>
-      <c r="F179" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="G179" s="37">
-        <v>1412.3903617824001</v>
-      </c>
-      <c r="H179" s="37">
-        <v>611.4805935491836</v>
-      </c>
-      <c r="I179" s="35">
-        <f>G179-H179</f>
-        <v>800.90976823321648</v>
-      </c>
-    </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B180" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="C180" s="35">
-        <v>2324.3886709994686</v>
-      </c>
-      <c r="D180" s="35">
-        <v>1087.8955565910298</v>
-      </c>
-      <c r="E180" s="1"/>
-      <c r="F180" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="G180" s="37">
-        <v>1036.8606891202562</v>
-      </c>
-      <c r="H180" s="37">
-        <v>453.38768150404417</v>
-      </c>
-      <c r="I180" s="35">
-        <f>G180-H180</f>
-        <v>583.47300761621204</v>
-      </c>
-    </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B181" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C181" s="35">
-        <v>6335.0985346848274</v>
-      </c>
-      <c r="D181" s="35">
-        <v>3527.6699695110847</v>
-      </c>
-      <c r="E181" s="1"/>
-      <c r="F181" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="G181" s="37">
-        <v>2110.0115023597214</v>
-      </c>
-      <c r="H181" s="37">
-        <v>913.41749254212255</v>
-      </c>
-      <c r="I181" s="35">
-        <f>G181-H181</f>
-        <v>1196.5940098175988</v>
-      </c>
-    </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B182" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C182" s="35">
-        <v>2688.9986586072287</v>
-      </c>
-      <c r="D182" s="35">
-        <v>1539.0005328672169</v>
-      </c>
-      <c r="E182" s="1"/>
-      <c r="F182" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G182" s="37">
-        <v>2326.2876813515927</v>
-      </c>
-      <c r="H182" s="37">
-        <v>895.62075732036317</v>
-      </c>
-      <c r="I182" s="35">
-        <f>G182-H182</f>
-        <v>1430.6669240312294</v>
-      </c>
-    </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B183" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C183" s="35">
-        <v>2780.1511555091688</v>
-      </c>
-      <c r="D183" s="35">
-        <v>1607.0749883503549</v>
-      </c>
-      <c r="E183" s="1"/>
-      <c r="F183" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G183" s="37">
-        <v>3144.7611431169285</v>
-      </c>
-      <c r="H183" s="37">
-        <v>1348.8147218573445</v>
-      </c>
-      <c r="I183" s="35">
-        <f>G183-H183</f>
-        <v>1795.946421259584</v>
-      </c>
-    </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B184" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C184" s="35">
-        <v>3327.0661369208083</v>
-      </c>
-      <c r="D184" s="35">
-        <v>1486.4793925724032</v>
-      </c>
-      <c r="E184" s="1"/>
-      <c r="F184" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="G184" s="37">
-        <v>4461.9147233499616</v>
-      </c>
-      <c r="H184" s="37">
-        <v>1970.5703617106738</v>
-      </c>
-      <c r="I184" s="35">
-        <f>G184-H184</f>
-        <v>2491.3443616392879</v>
-      </c>
-    </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B185" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C185" s="35">
-        <v>2142.0836771955892</v>
-      </c>
-      <c r="D185" s="35">
-        <v>921.74430938084436</v>
-      </c>
-      <c r="E185" s="1"/>
-      <c r="F185" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G185" s="37">
-        <v>45995.737380548206</v>
-      </c>
-      <c r="H185" s="37">
-        <v>21479.790045378508</v>
-      </c>
-      <c r="I185" s="35">
-        <f>G185-H185</f>
-        <v>24515.947335169698</v>
-      </c>
-    </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B186" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C186" s="35">
-        <v>3919.5573667834178</v>
-      </c>
-      <c r="D186" s="35">
-        <v>1901.3407721828864</v>
-      </c>
-      <c r="E186" s="1"/>
-      <c r="F186" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="G186" s="37">
-        <v>4640</v>
-      </c>
-      <c r="H186" s="37">
-        <v>2041.6</v>
-      </c>
-      <c r="I186" s="35">
-        <f>G186-H186</f>
-        <v>2598.4</v>
-      </c>
-    </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B187" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C187" s="35">
-        <v>3144.7611431169285</v>
-      </c>
-      <c r="D187" s="35">
-        <v>1348.8147218573445</v>
-      </c>
-      <c r="E187" s="1"/>
-      <c r="F187" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="G187" s="37">
-        <v>6424</v>
-      </c>
-      <c r="H187" s="37">
-        <v>2770.0288</v>
-      </c>
-      <c r="I187" s="35">
-        <f>G187-H187</f>
-        <v>3653.9712</v>
-      </c>
-    </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B188" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C188" s="35">
-        <v>2734.5749070581983</v>
-      </c>
-      <c r="D188" s="35">
-        <v>1326.3819231907426</v>
-      </c>
-      <c r="E188" s="1"/>
-      <c r="F188" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="G188" s="37">
-        <v>5001.92</v>
-      </c>
-      <c r="H188" s="37">
-        <v>2243.1010201600002</v>
-      </c>
-      <c r="I188" s="35">
-        <f>G188-H188</f>
-        <v>2758.8189798399999</v>
-      </c>
-    </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B189" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C189" s="35">
-        <v>2233.2361740975293</v>
-      </c>
-      <c r="D189" s="35">
-        <v>1256.2754308857691</v>
-      </c>
-      <c r="E189" s="1"/>
-      <c r="F189" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="G189" s="37">
-        <v>4015.3343999999997</v>
-      </c>
-      <c r="H189" s="37">
-        <v>1872.6954282516479</v>
-      </c>
-      <c r="I189" s="35">
-        <f>G189-H189</f>
-        <v>2142.6389717483517</v>
-      </c>
-    </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B190" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="C190" s="35"/>
-      <c r="D190" s="35"/>
-      <c r="E190" s="1"/>
-      <c r="F190" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="G190" s="37">
-        <v>3653.9543039999999</v>
-      </c>
-      <c r="H190" s="37">
-        <v>1772.3189532973597</v>
-      </c>
-      <c r="I190" s="35">
-        <f>G190-H190</f>
-        <v>1881.6353507026402</v>
-      </c>
-    </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B191" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C191" s="35">
-        <v>4762.7179631263634</v>
-      </c>
-      <c r="D191" s="35">
-        <v>3160.8345375591989</v>
-      </c>
-      <c r="E191" s="1"/>
-      <c r="F191" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="G191" s="37">
-        <v>3095.20379168</v>
-      </c>
-      <c r="H191" s="37">
-        <v>1516.3148651558615</v>
-      </c>
-      <c r="I191" s="35">
-        <f>G191-H191</f>
-        <v>1578.8889265241385</v>
-      </c>
-    </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B192" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C192" s="35">
-        <v>551.47260625673675</v>
-      </c>
-      <c r="D192" s="35">
-        <v>257.49997016260198</v>
-      </c>
-      <c r="E192" s="1"/>
-      <c r="F192" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="G192" s="37">
-        <v>3157.1078675136005</v>
-      </c>
-      <c r="H192" s="37">
-        <v>1515.7083392097993</v>
-      </c>
-      <c r="I192" s="35">
-        <f>G192-H192</f>
-        <v>1641.3995283038012</v>
-      </c>
-    </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B193" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C193" s="35">
-        <v>2406.425918211215</v>
-      </c>
-      <c r="D193" s="35">
-        <v>1448.034009461981</v>
-      </c>
-      <c r="E193" s="1"/>
-      <c r="F193" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="G193" s="37">
-        <v>2851.3668950807046</v>
-      </c>
-      <c r="H193" s="37">
-        <v>1409.9916712560719</v>
-      </c>
-      <c r="I193" s="35">
-        <f>G193-H193</f>
-        <v>1441.3752238246327</v>
-      </c>
-    </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B194" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C194" s="35">
-        <v>1804.8194386584114</v>
-      </c>
-      <c r="D194" s="35">
-        <v>1020.8869933053431</v>
-      </c>
-      <c r="E194" s="1"/>
-      <c r="F194" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="G194" s="37">
-        <v>3165.0172535395823</v>
-      </c>
-      <c r="H194" s="37">
-        <v>1612.0434777470671</v>
-      </c>
-      <c r="I194" s="35">
-        <f>G194-H194</f>
-        <v>1552.9737757925152</v>
-      </c>
-    </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B195" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C195" s="35">
-        <v>752.00809944100467</v>
-      </c>
-      <c r="D195" s="35">
-        <v>427.94393264333848</v>
-      </c>
-      <c r="E195" s="1"/>
-      <c r="F195" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G195" s="37">
-        <v>3798.0207042474985</v>
-      </c>
-      <c r="H195" s="37">
-        <v>1637.7065276715214</v>
-      </c>
-      <c r="I195" s="35">
-        <f>G195-H195</f>
-        <v>2160.3141765759774</v>
-      </c>
-    </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B196" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C196" s="35">
-        <v>802.1419727370718</v>
-      </c>
-      <c r="D196" s="35">
-        <v>432.20417536480119</v>
-      </c>
-      <c r="E196" s="1"/>
-      <c r="F196" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G196" s="37">
-        <v>2734.5749070581983</v>
-      </c>
-      <c r="H196" s="37">
-        <v>1326.3819231907426</v>
-      </c>
-      <c r="I196" s="35">
-        <f>G196-H196</f>
-        <v>1408.1929838674557</v>
-      </c>
-    </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B197" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="C197" s="35">
-        <v>3559.5050040207557</v>
-      </c>
-      <c r="D197" s="35">
-        <v>1664.4808793218765</v>
-      </c>
-      <c r="E197" s="1"/>
-      <c r="F197" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="G197" s="37">
-        <v>3459.2372574286223</v>
-      </c>
-      <c r="H197" s="37">
-        <v>1761.8990394384348</v>
-      </c>
-      <c r="I197" s="35">
-        <f>G197-H197</f>
-        <v>1697.3382179901876</v>
-      </c>
-    </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B198" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C198" s="35">
-        <v>5965.9309222319716</v>
-      </c>
-      <c r="D198" s="35">
-        <v>3630.5117855577018</v>
-      </c>
-      <c r="E198" s="1"/>
-      <c r="F198" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G198" s="37">
-        <v>19977.70080055821</v>
-      </c>
-      <c r="H198" s="37">
-        <v>11147.659288192985</v>
-      </c>
-      <c r="I198" s="35">
-        <f>G198-H198</f>
-        <v>8830.0415123652256</v>
-      </c>
-    </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B199" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C199" s="35">
-        <v>3960.5759903892917</v>
-      </c>
-      <c r="D199" s="35">
-        <v>2332.0037818922497</v>
-      </c>
-      <c r="E199" s="1"/>
-      <c r="F199" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="G199" s="37">
-        <v>1800</v>
-      </c>
-      <c r="H199" s="37">
-        <v>936</v>
-      </c>
-      <c r="I199" s="35">
-        <f>G199-H199</f>
-        <v>864</v>
-      </c>
-    </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B200" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C200" s="35">
-        <v>2055.4888051387466</v>
-      </c>
-      <c r="D200" s="35">
-        <v>1259.4074477802305</v>
-      </c>
-      <c r="E200" s="1"/>
-      <c r="F200" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="G200" s="37">
-        <v>1100</v>
-      </c>
-      <c r="H200" s="37">
-        <v>566.28000000000009</v>
-      </c>
-      <c r="I200" s="35">
-        <f>G200-H200</f>
-        <v>533.71999999999991</v>
-      </c>
-    </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B201" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C201" s="35">
-        <v>4161.1114835735598</v>
-      </c>
-      <c r="D201" s="35">
-        <v>1857.630380842711</v>
-      </c>
-      <c r="E201" s="1"/>
-      <c r="F201" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="G201" s="37">
-        <v>646.79999999999995</v>
-      </c>
-      <c r="H201" s="37">
-        <v>342.96181919999998</v>
-      </c>
-      <c r="I201" s="35">
-        <f>G201-H201</f>
-        <v>303.83818079999998</v>
-      </c>
-    </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B202" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C202" s="35">
-        <v>3158.4340176522201</v>
-      </c>
-      <c r="D202" s="35">
-        <v>1544.5104646224395</v>
-      </c>
-      <c r="E202" s="1"/>
-      <c r="F202" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="G202" s="37">
-        <v>1463.9240000000002</v>
-      </c>
-      <c r="H202" s="37">
-        <v>799.52402497968023</v>
-      </c>
-      <c r="I202" s="35">
-        <f>G202-H202</f>
-        <v>664.39997502031997</v>
-      </c>
-    </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B203" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C203" s="35">
-        <v>5314.1905693831004</v>
-      </c>
-      <c r="D203" s="35">
-        <v>2763.0067730550536</v>
-      </c>
-      <c r="E203" s="1"/>
-      <c r="F203" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="G203" s="37">
-        <v>1332.17084</v>
-      </c>
-      <c r="H203" s="37">
-        <v>749.39386861345417</v>
-      </c>
-      <c r="I203" s="35">
-        <f>G203-H203</f>
-        <v>582.77697138654582</v>
-      </c>
-    </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B204" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C204" s="35">
-        <v>4461.9147233499616</v>
-      </c>
-      <c r="D204" s="35">
-        <v>1970.5703617106738</v>
-      </c>
-      <c r="E204" s="1"/>
-      <c r="F204" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="G204" s="37">
-        <v>1425.4227988000002</v>
-      </c>
-      <c r="H204" s="37">
-        <v>785.81441062806823</v>
-      </c>
-      <c r="I204" s="35">
-        <f>G204-H204</f>
-        <v>639.60838817193201</v>
-      </c>
-    </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B205" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C205" s="35">
-        <v>3459.2372574286223</v>
-      </c>
-      <c r="D205" s="35">
-        <v>1761.8990394384348</v>
-      </c>
-      <c r="E205" s="1"/>
-      <c r="F205" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="G205" s="37">
-        <v>1453.9312547760003</v>
-      </c>
-      <c r="H205" s="37">
-        <v>825.57661980584851</v>
-      </c>
-      <c r="I205" s="35">
-        <f>G205-H205</f>
-        <v>628.35463497015178</v>
-      </c>
-    </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B206" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C206" s="35">
-        <v>2957.898524467952</v>
-      </c>
-      <c r="D206" s="35">
-        <v>1781.8503754296369</v>
-      </c>
-      <c r="E206" s="1"/>
-      <c r="F206" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="G206" s="37">
-        <v>1080.0632178336002</v>
-      </c>
-      <c r="H206" s="37">
-        <v>631.68405366858929</v>
-      </c>
-      <c r="I206" s="35">
-        <f>G206-H206</f>
-        <v>448.37916416501093</v>
-      </c>
-    </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B207" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C207" s="35">
-        <v>524449.21666875854</v>
-      </c>
-      <c r="D207" s="35">
-        <v>272424.81634327158</v>
-      </c>
-      <c r="E207" s="1"/>
-      <c r="F207" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="G207" s="37">
-        <v>2157.9663092315332</v>
-      </c>
-      <c r="H207" s="37">
-        <v>1274.7257866221396</v>
-      </c>
-      <c r="I207" s="35">
-        <f>G207-H207</f>
-        <v>883.24052260939357</v>
-      </c>
-    </row>
-    <row r="208" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F208" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G208" s="37">
-        <v>2326.2876813515927</v>
-      </c>
-      <c r="H208" s="37">
-        <v>1197.5728983598001</v>
-      </c>
-      <c r="I208" s="35">
-        <f>G208-H208</f>
-        <v>1128.7147829917926</v>
-      </c>
-    </row>
-    <row r="209" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F209" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G209" s="37">
-        <v>2233.2361740975293</v>
-      </c>
-      <c r="H209" s="37">
-        <v>1256.2754308857691</v>
-      </c>
-      <c r="I209" s="35">
-        <f>G209-H209</f>
-        <v>976.96074321176025</v>
-      </c>
-    </row>
-    <row r="210" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F210" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="G210" s="37">
-        <v>2957.898524467952</v>
-      </c>
-      <c r="H210" s="37">
-        <v>1781.8503754296369</v>
-      </c>
-      <c r="I210" s="35">
-        <f>G210-H210</f>
-        <v>1176.0481490383152</v>
-      </c>
-    </row>
-    <row r="211" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F211" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="G211" s="38">
-        <v>524449.21666875854</v>
-      </c>
-      <c r="H211" s="38">
-        <v>272424.81634327152</v>
-      </c>
-      <c r="I211" s="35">
-        <f>G211-H211</f>
-        <v>252024.40032548702</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>